--- a/rtmath/profiles.xlsx
+++ b/rtmath/profiles.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="15180" windowHeight="6795" activeTab="5"/>
+    <workbookView xWindow="120" yWindow="60" windowWidth="15180" windowHeight="6795" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TRP" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="46">
   <si>
     <t>Profile</t>
   </si>
@@ -156,13 +156,24 @@
   <si>
     <t>USS</t>
   </si>
+  <si>
+    <t>2..59e-6</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -190,9 +201,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -496,8 +509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView topLeftCell="E11" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1602,7 +1615,7 @@
       <c r="F39" s="1">
         <v>2.8</v>
       </c>
-      <c r="G39" s="1">
+      <c r="G39" s="2">
         <v>4.7499999999999999E-3</v>
       </c>
       <c r="H39" s="1">
@@ -2027,8 +2040,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2103,250 +2116,400 @@
       <c r="A4">
         <v>0</v>
       </c>
+      <c r="B4">
+        <v>1013</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
+      <c r="B5">
+        <v>902</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
+      <c r="B6">
+        <v>802</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3</v>
       </c>
+      <c r="B7">
+        <v>710</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>4</v>
       </c>
+      <c r="B8">
+        <v>628</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>5</v>
       </c>
+      <c r="B9">
+        <v>554</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>6</v>
       </c>
+      <c r="B10">
+        <v>487</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>7</v>
       </c>
+      <c r="B11">
+        <v>426</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>8</v>
       </c>
+      <c r="B12">
+        <v>372</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>9</v>
       </c>
+      <c r="B13">
+        <v>324</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>10</v>
       </c>
+      <c r="B14">
+        <v>281</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>11</v>
       </c>
+      <c r="B15">
+        <v>243</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>12</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>13</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>14</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>15</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>16</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>17</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>18</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>81.2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>19</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>69.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>20</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>59.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>21</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>22</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>43.7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>23</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>37.6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>24</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>32.200000000000003</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>25</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>27.7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>27.5</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>19.07</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>32.5</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>35</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>6.52</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>37.5</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>4.6399999999999997</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>40</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>3.33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>42.5</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>2.41</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>45</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <v>1.76</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>47.5</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>50</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <v>0.95099999999999996</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>55</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <v>0.51500000000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>60</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <v>0.27200000000000002</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>65</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <v>0.13900000000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>70</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <v>6.7000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>75</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>80</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>85</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B46" s="1">
+        <v>4.4799999999999996E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>90</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B47" s="1">
+        <v>1.64E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>95</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B48" s="1">
+        <v>6.2500000000000001E-4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>100</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B49" s="1">
+        <v>2.5799999999999998E-4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>105</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B50" s="1">
+        <v>1.17E-4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>110</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B51" s="1">
+        <v>6.1099999999999994E-5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>115</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B52" s="1">
+        <v>3.5599999999999998E-5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>120</v>
+      </c>
+      <c r="B53" s="1">
+        <v>2.27E-5</v>
       </c>
     </row>
   </sheetData>
@@ -3351,8 +3514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3683,7 +3846,7 @@
   <dimension ref="A1:AC53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A53"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3778,7 +3941,7 @@
       <c r="AB2" t="s">
         <v>39</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AC2" s="3" t="s">
         <v>40</v>
       </c>
     </row>
@@ -3875,250 +4038,4450 @@
       <c r="A4">
         <v>0</v>
       </c>
+      <c r="B4">
+        <v>7750</v>
+      </c>
+      <c r="C4">
+        <v>330</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2.6599999999999999E-2</v>
+      </c>
+      <c r="E4">
+        <v>0.32</v>
+      </c>
+      <c r="F4">
+        <v>0.15</v>
+      </c>
+      <c r="G4">
+        <v>1.7</v>
+      </c>
+      <c r="H4" s="1">
+        <v>209000</v>
+      </c>
+      <c r="I4" s="1">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="J4" s="1">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="K4" s="1">
+        <v>2.3E-5</v>
+      </c>
+      <c r="L4" s="1">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="M4" s="1">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="N4" s="1">
+        <v>4.3999999999999997E-8</v>
+      </c>
+      <c r="O4" s="1">
+        <v>1E-8</v>
+      </c>
+      <c r="P4" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>1.7E-6</v>
+      </c>
+      <c r="R4" s="1">
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="S4" s="1">
+        <v>1E-8</v>
+      </c>
+      <c r="T4" s="1">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="U4" s="1">
+        <v>2.3999999999999998E-3</v>
+      </c>
+      <c r="V4" s="1">
+        <v>7.7000000000000008E-6</v>
+      </c>
+      <c r="W4" s="1">
+        <v>7.8100000000000001E-5</v>
+      </c>
+      <c r="X4" s="1">
+        <v>1.7000000000000001E-4</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="AA4" s="1">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="AB4" s="1">
+        <v>2E-3</v>
+      </c>
+      <c r="AC4" s="1">
+        <v>1E-14</v>
+      </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
+      <c r="B5">
+        <v>6070</v>
+      </c>
+      <c r="C5">
+        <v>330</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2.93E-2</v>
+      </c>
+      <c r="E5">
+        <v>0.32</v>
+      </c>
+      <c r="F5">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="G5">
+        <v>1.7</v>
+      </c>
+      <c r="H5" s="1">
+        <v>209000</v>
+      </c>
+      <c r="I5" s="1">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="J5" s="1">
+        <v>2.7399999999999999E-4</v>
+      </c>
+      <c r="K5" s="1">
+        <v>2.3E-5</v>
+      </c>
+      <c r="L5" s="1">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="M5" s="1">
+        <v>5.9599999999999999E-5</v>
+      </c>
+      <c r="N5" s="1">
+        <v>4.3999999999999997E-8</v>
+      </c>
+      <c r="O5" s="1">
+        <v>1E-8</v>
+      </c>
+      <c r="P5" s="1">
+        <v>7.4899999999999999E-4</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>1.7E-6</v>
+      </c>
+      <c r="R5" s="1">
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="S5" s="1">
+        <v>1E-8</v>
+      </c>
+      <c r="T5" s="1">
+        <v>5.9000000000000003E-4</v>
+      </c>
+      <c r="U5" s="1">
+        <v>1.07E-3</v>
+      </c>
+      <c r="V5" s="1">
+        <v>1.06E-5</v>
+      </c>
+      <c r="W5" s="1">
+        <v>7.8100000000000001E-5</v>
+      </c>
+      <c r="X5" s="1">
+        <v>1.65E-4</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>6.7000000000000002E-4</v>
+      </c>
+      <c r="Z5" s="1">
+        <v>1.95E-4</v>
+      </c>
+      <c r="AA5" s="1">
+        <v>1.7200000000000001E-4</v>
+      </c>
+      <c r="AB5" s="1">
+        <v>2E-3</v>
+      </c>
+      <c r="AC5" s="1">
+        <v>1E-14</v>
+      </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
+      <c r="B6">
+        <v>4830</v>
+      </c>
+      <c r="C6">
+        <v>330</v>
+      </c>
+      <c r="D6" s="1">
+        <v>3.2399999999999998E-2</v>
+      </c>
+      <c r="E6">
+        <v>0.32</v>
+      </c>
+      <c r="F6">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G6">
+        <v>1.7</v>
+      </c>
+      <c r="H6" s="1">
+        <v>209000</v>
+      </c>
+      <c r="I6" s="1">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="J6" s="1">
+        <v>2.3599999999999999E-4</v>
+      </c>
+      <c r="K6" s="1">
+        <v>2.3E-5</v>
+      </c>
+      <c r="L6" s="1">
+        <v>4.6299999999999998E-4</v>
+      </c>
+      <c r="M6" s="1">
+        <v>6.9300000000000004E-5</v>
+      </c>
+      <c r="N6" s="1">
+        <v>4.3999999999999997E-8</v>
+      </c>
+      <c r="O6" s="1">
+        <v>1.2299999999999999E-8</v>
+      </c>
+      <c r="P6" s="1">
+        <v>5.6099999999999998E-4</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>1.7E-6</v>
+      </c>
+      <c r="R6" s="1">
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="S6" s="1">
+        <v>1E-8</v>
+      </c>
+      <c r="T6" s="1">
+        <v>5.8E-4</v>
+      </c>
+      <c r="U6" s="1">
+        <v>4.0400000000000001E-4</v>
+      </c>
+      <c r="V6" s="1">
+        <v>1.22E-5</v>
+      </c>
+      <c r="W6" s="1">
+        <v>7.8100000000000001E-5</v>
+      </c>
+      <c r="X6" s="1">
+        <v>1.63E-4</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>6.4300000000000002E-4</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>1.92E-4</v>
+      </c>
+      <c r="AA6" s="1">
+        <v>9.5699999999999995E-5</v>
+      </c>
+      <c r="AB6" s="1">
+        <v>2E-3</v>
+      </c>
+      <c r="AC6" s="1">
+        <v>1E-14</v>
+      </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3</v>
       </c>
+      <c r="B7">
+        <v>3180</v>
+      </c>
+      <c r="C7">
+        <v>330</v>
+      </c>
+      <c r="D7" s="1">
+        <v>3.32E-2</v>
+      </c>
+      <c r="E7">
+        <v>0.32</v>
+      </c>
+      <c r="F7">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="G7">
+        <v>1.7</v>
+      </c>
+      <c r="H7" s="1">
+        <v>209000</v>
+      </c>
+      <c r="I7" s="1">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1.9000000000000001E-4</v>
+      </c>
+      <c r="K7" s="1">
+        <v>2.3E-5</v>
+      </c>
+      <c r="L7" s="1">
+        <v>3.8000000000000002E-4</v>
+      </c>
+      <c r="M7" s="1">
+        <v>7.9099999999999998E-5</v>
+      </c>
+      <c r="N7" s="1">
+        <v>4.3999999999999997E-8</v>
+      </c>
+      <c r="O7" s="1">
+        <v>1.9700000000000001E-8</v>
+      </c>
+      <c r="P7" s="1">
+        <v>4.2200000000000001E-4</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>1.7E-6</v>
+      </c>
+      <c r="R7" s="1">
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="S7" s="1">
+        <v>1E-8</v>
+      </c>
+      <c r="T7" s="1">
+        <v>5.6999999999999998E-4</v>
+      </c>
+      <c r="U7" s="1">
+        <v>2.2699999999999999E-4</v>
+      </c>
+      <c r="V7" s="1">
+        <v>1.1399999999999999E-5</v>
+      </c>
+      <c r="W7" s="1">
+        <v>7.8100000000000001E-5</v>
+      </c>
+      <c r="X7" s="1">
+        <v>1.6100000000000001E-4</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>6.2200000000000005E-4</v>
+      </c>
+      <c r="Z7" s="1">
+        <v>1.8900000000000001E-4</v>
+      </c>
+      <c r="AA7" s="1">
+        <v>6.7399999999999998E-5</v>
+      </c>
+      <c r="AB7" s="1">
+        <v>2E-3</v>
+      </c>
+      <c r="AC7" s="1">
+        <v>1E-14</v>
+      </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>4</v>
       </c>
+      <c r="B8">
+        <v>2160</v>
+      </c>
+      <c r="C8">
+        <v>330</v>
+      </c>
+      <c r="D8" s="1">
+        <v>3.39E-2</v>
+      </c>
+      <c r="E8">
+        <v>0.32</v>
+      </c>
+      <c r="F8">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="G8">
+        <v>1.7</v>
+      </c>
+      <c r="H8" s="1">
+        <v>209000</v>
+      </c>
+      <c r="I8" s="1">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1.46E-4</v>
+      </c>
+      <c r="K8" s="1">
+        <v>2.3E-5</v>
+      </c>
+      <c r="L8" s="1">
+        <v>2.8800000000000001E-4</v>
+      </c>
+      <c r="M8" s="1">
+        <v>8.8700000000000001E-5</v>
+      </c>
+      <c r="N8" s="1">
+        <v>4.3999999999999997E-8</v>
+      </c>
+      <c r="O8" s="1">
+        <v>3.18E-8</v>
+      </c>
+      <c r="P8" s="1">
+        <v>3.19E-4</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>1.7E-6</v>
+      </c>
+      <c r="R8" s="1">
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="S8" s="1">
+        <v>1E-8</v>
+      </c>
+      <c r="T8" s="1">
+        <v>5.62E-4</v>
+      </c>
+      <c r="U8" s="1">
+        <v>1.3999999999999999E-4</v>
+      </c>
+      <c r="V8" s="1">
+        <v>9.7999999999999993E-6</v>
+      </c>
+      <c r="W8" s="1">
+        <v>7.8100000000000001E-5</v>
+      </c>
+      <c r="X8" s="1">
+        <v>1.6000000000000001E-4</v>
+      </c>
+      <c r="Y8" s="1">
+        <v>6.0700000000000001E-4</v>
+      </c>
+      <c r="Z8" s="1">
+        <v>1.84E-4</v>
+      </c>
+      <c r="AA8" s="1">
+        <v>5.0699999999999999E-5</v>
+      </c>
+      <c r="AB8" s="1">
+        <v>1.98E-3</v>
+      </c>
+      <c r="AC8" s="1">
+        <v>1E-14</v>
+      </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>5</v>
       </c>
+      <c r="B9">
+        <v>1400</v>
+      </c>
+      <c r="C9">
+        <v>330</v>
+      </c>
+      <c r="D9" s="1">
+        <v>3.7699999999999997E-2</v>
+      </c>
+      <c r="E9">
+        <v>0.32</v>
+      </c>
+      <c r="F9">
+        <v>0.13</v>
+      </c>
+      <c r="G9">
+        <v>1.7</v>
+      </c>
+      <c r="H9" s="1">
+        <v>209000</v>
+      </c>
+      <c r="I9" s="1">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1.18E-4</v>
+      </c>
+      <c r="K9" s="1">
+        <v>2.3E-5</v>
+      </c>
+      <c r="L9" s="1">
+        <v>2.04E-4</v>
+      </c>
+      <c r="M9" s="1">
+        <v>9.7499999999999998E-5</v>
+      </c>
+      <c r="N9" s="1">
+        <v>4.3999999999999997E-8</v>
+      </c>
+      <c r="O9" s="1">
+        <v>5.6300000000000001E-8</v>
+      </c>
+      <c r="P9" s="1">
+        <v>2.3900000000000001E-4</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>1.7E-6</v>
+      </c>
+      <c r="R9" s="1">
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="S9" s="1">
+        <v>1E-8</v>
+      </c>
+      <c r="T9" s="1">
+        <v>5.5500000000000005E-4</v>
+      </c>
+      <c r="U9" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="V9" s="1">
+        <v>8.0099999999999995E-6</v>
+      </c>
+      <c r="W9" s="1">
+        <v>7.8100000000000001E-5</v>
+      </c>
+      <c r="X9" s="1">
+        <v>1.6000000000000001E-4</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>6.02E-4</v>
+      </c>
+      <c r="Z9" s="1">
+        <v>1.7699999999999999E-4</v>
+      </c>
+      <c r="AA9" s="1">
+        <v>3.9900000000000001E-5</v>
+      </c>
+      <c r="AB9" s="1">
+        <v>1.9499999999999999E-3</v>
+      </c>
+      <c r="AC9" s="1">
+        <v>1E-14</v>
+      </c>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>6</v>
       </c>
+      <c r="B10">
+        <v>925</v>
+      </c>
+      <c r="C10">
+        <v>330</v>
+      </c>
+      <c r="D10" s="1">
+        <v>4.1099999999999998E-2</v>
+      </c>
+      <c r="E10">
+        <v>0.32</v>
+      </c>
+      <c r="F10">
+        <v>0.129</v>
+      </c>
+      <c r="G10">
+        <v>1.7</v>
+      </c>
+      <c r="H10" s="1">
+        <v>209000</v>
+      </c>
+      <c r="I10" s="1">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="J10" s="1">
+        <v>9.7100000000000002E-5</v>
+      </c>
+      <c r="K10" s="1">
+        <v>2.3E-5</v>
+      </c>
+      <c r="L10" s="1">
+        <v>1.46E-4</v>
+      </c>
+      <c r="M10" s="1">
+        <v>1.11E-4</v>
+      </c>
+      <c r="N10" s="1">
+        <v>4.3999999999999997E-8</v>
+      </c>
+      <c r="O10" s="1">
+        <v>9.1800000000000001E-8</v>
+      </c>
+      <c r="P10" s="1">
+        <v>1.7899999999999999E-4</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>1.7E-6</v>
+      </c>
+      <c r="R10" s="1">
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="S10" s="1">
+        <v>1E-8</v>
+      </c>
+      <c r="T10" s="1">
+        <v>5.4799999999999998E-4</v>
+      </c>
+      <c r="U10" s="1">
+        <v>7.4400000000000006E-5</v>
+      </c>
+      <c r="V10" s="1">
+        <v>6.4200000000000004E-6</v>
+      </c>
+      <c r="W10" s="1">
+        <v>7.8100000000000001E-5</v>
+      </c>
+      <c r="X10" s="1">
+        <v>1.6000000000000001E-4</v>
+      </c>
+      <c r="Y10" s="1">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="Z10" s="1">
+        <v>1.66E-4</v>
+      </c>
+      <c r="AA10" s="1">
+        <v>3.1900000000000003E-5</v>
+      </c>
+      <c r="AB10" s="1">
+        <v>1.9E-3</v>
+      </c>
+      <c r="AC10" s="1">
+        <v>1E-14</v>
+      </c>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>7</v>
       </c>
+      <c r="B11">
+        <v>572</v>
+      </c>
+      <c r="C11">
+        <v>330</v>
+      </c>
+      <c r="D11" s="1">
+        <v>5.0099999999999999E-2</v>
+      </c>
+      <c r="E11">
+        <v>0.32</v>
+      </c>
+      <c r="F11">
+        <v>0.125</v>
+      </c>
+      <c r="G11">
+        <v>1.7</v>
+      </c>
+      <c r="H11" s="1">
+        <v>209000</v>
+      </c>
+      <c r="I11" s="1">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="J11" s="1">
+        <v>8.2999999999999998E-5</v>
+      </c>
+      <c r="K11" s="1">
+        <v>2.3E-5</v>
+      </c>
+      <c r="L11" s="1">
+        <v>9.8800000000000003E-5</v>
+      </c>
+      <c r="M11" s="1">
+        <v>1.26E-4</v>
+      </c>
+      <c r="N11" s="1">
+        <v>4.4099999999999998E-8</v>
+      </c>
+      <c r="O11" s="1">
+        <v>1.5300000000000001E-7</v>
+      </c>
+      <c r="P11" s="1">
+        <v>1.3200000000000001E-4</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>1.7E-6</v>
+      </c>
+      <c r="R11" s="1">
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="S11" s="1">
+        <v>1E-8</v>
+      </c>
+      <c r="T11" s="1">
+        <v>5.4000000000000001E-4</v>
+      </c>
+      <c r="U11" s="1">
+        <v>6.0399999999999998E-5</v>
+      </c>
+      <c r="V11" s="1">
+        <v>5.4199999999999998E-6</v>
+      </c>
+      <c r="W11" s="1">
+        <v>7.8100000000000001E-5</v>
+      </c>
+      <c r="X11" s="1">
+        <v>1.6000000000000001E-4</v>
+      </c>
+      <c r="Y11" s="1">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="Z11" s="1">
+        <v>1.4899999999999999E-4</v>
+      </c>
+      <c r="AA11" s="1">
+        <v>2.8E-5</v>
+      </c>
+      <c r="AB11" s="1">
+        <v>1.8500000000000001E-3</v>
+      </c>
+      <c r="AC11" s="1">
+        <v>1E-14</v>
+      </c>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>8</v>
       </c>
+      <c r="B12">
+        <v>367</v>
+      </c>
+      <c r="C12">
+        <v>330</v>
+      </c>
+      <c r="D12" s="1">
+        <v>5.9700000000000003E-2</v>
+      </c>
+      <c r="E12">
+        <v>0.32</v>
+      </c>
+      <c r="F12">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="G12">
+        <v>1.7</v>
+      </c>
+      <c r="H12" s="1">
+        <v>209000</v>
+      </c>
+      <c r="I12" s="1">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="J12" s="1">
+        <v>7.2100000000000004E-5</v>
+      </c>
+      <c r="K12" s="1">
+        <v>2.3E-5</v>
+      </c>
+      <c r="L12" s="1">
+        <v>6.4800000000000003E-5</v>
+      </c>
+      <c r="M12" s="1">
+        <v>1.3899999999999999E-4</v>
+      </c>
+      <c r="N12" s="1">
+        <v>4.4500000000000001E-8</v>
+      </c>
+      <c r="O12" s="1">
+        <v>2.41E-7</v>
+      </c>
+      <c r="P12" s="1">
+        <v>9.9599999999999995E-5</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>1.7E-6</v>
+      </c>
+      <c r="R12" s="1">
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="S12" s="1">
+        <v>1.0099999999999999E-8</v>
+      </c>
+      <c r="T12" s="1">
+        <v>5.3200000000000003E-4</v>
+      </c>
+      <c r="U12" s="1">
+        <v>5.0099999999999998E-5</v>
+      </c>
+      <c r="V12" s="1">
+        <v>4.6999999999999999E-6</v>
+      </c>
+      <c r="W12" s="1">
+        <v>7.8100000000000001E-5</v>
+      </c>
+      <c r="X12" s="1">
+        <v>1.6000000000000001E-4</v>
+      </c>
+      <c r="Y12" s="1">
+        <v>5.9800000000000001E-4</v>
+      </c>
+      <c r="Z12" s="1">
+        <v>1.2300000000000001E-4</v>
+      </c>
+      <c r="AA12" s="1">
+        <v>2.55E-5</v>
+      </c>
+      <c r="AB12" s="1">
+        <v>1.7899999999999999E-3</v>
+      </c>
+      <c r="AC12" s="1">
+        <v>1E-14</v>
+      </c>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>9</v>
       </c>
+      <c r="B13">
+        <v>158</v>
+      </c>
+      <c r="C13">
+        <v>330</v>
+      </c>
+      <c r="D13" s="1">
+        <v>9.1700000000000004E-2</v>
+      </c>
+      <c r="E13">
+        <v>0.32</v>
+      </c>
+      <c r="F13">
+        <v>0.109</v>
+      </c>
+      <c r="G13">
+        <v>1.69</v>
+      </c>
+      <c r="H13" s="1">
+        <v>209000</v>
+      </c>
+      <c r="I13" s="1">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="J13" s="1">
+        <v>6.5599999999999995E-5</v>
+      </c>
+      <c r="K13" s="1">
+        <v>2.3200000000000001E-5</v>
+      </c>
+      <c r="L13" s="1">
+        <v>3.7700000000000002E-5</v>
+      </c>
+      <c r="M13" s="1">
+        <v>1.5300000000000001E-4</v>
+      </c>
+      <c r="N13" s="1">
+        <v>4.5599999999999998E-8</v>
+      </c>
+      <c r="O13" s="1">
+        <v>4.0400000000000002E-7</v>
+      </c>
+      <c r="P13" s="1">
+        <v>7.4800000000000002E-5</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>1.7E-6</v>
+      </c>
+      <c r="R13" s="1">
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="S13" s="1">
+        <v>1.05E-8</v>
+      </c>
+      <c r="T13" s="1">
+        <v>5.2499999999999997E-4</v>
+      </c>
+      <c r="U13" s="1">
+        <v>4.2200000000000003E-5</v>
+      </c>
+      <c r="V13" s="1">
+        <v>4.4100000000000001E-6</v>
+      </c>
+      <c r="W13" s="1">
+        <v>7.8100000000000001E-5</v>
+      </c>
+      <c r="X13" s="1">
+        <v>1.6000000000000001E-4</v>
+      </c>
+      <c r="Y13" s="1">
+        <v>5.9400000000000002E-4</v>
+      </c>
+      <c r="Z13" s="1">
+        <v>9.09E-5</v>
+      </c>
+      <c r="AA13" s="1">
+        <v>2.4000000000000001E-5</v>
+      </c>
+      <c r="AB13" s="1">
+        <v>1.72E-3</v>
+      </c>
+      <c r="AC13" s="1">
+        <v>1E-14</v>
+      </c>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>10</v>
       </c>
+      <c r="B14">
+        <v>70</v>
+      </c>
+      <c r="C14">
+        <v>330</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="E14">
+        <v>0.318</v>
+      </c>
+      <c r="F14" s="1">
+        <v>9.9599999999999994E-2</v>
+      </c>
+      <c r="G14">
+        <v>1.69</v>
+      </c>
+      <c r="H14" s="1">
+        <v>209000</v>
+      </c>
+      <c r="I14" s="1">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="J14" s="1">
+        <v>6.0800000000000001E-5</v>
+      </c>
+      <c r="K14" s="1">
+        <v>2.3799999999999999E-5</v>
+      </c>
+      <c r="L14" s="1">
+        <v>2.0299999999999999E-5</v>
+      </c>
+      <c r="M14" s="1">
+        <v>1.74E-4</v>
+      </c>
+      <c r="N14" s="1">
+        <v>4.6800000000000002E-8</v>
+      </c>
+      <c r="O14" s="1">
+        <v>6.5700000000000002E-7</v>
+      </c>
+      <c r="P14" s="1">
+        <v>5.6799999999999998E-5</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>1.7E-6</v>
+      </c>
+      <c r="R14" s="1">
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="S14" s="1">
+        <v>1.2100000000000001E-8</v>
+      </c>
+      <c r="T14" s="1">
+        <v>5.1800000000000001E-4</v>
+      </c>
+      <c r="U14" s="1">
+        <v>3.6300000000000001E-5</v>
+      </c>
+      <c r="V14" s="1">
+        <v>4.34E-6</v>
+      </c>
+      <c r="W14" s="1">
+        <v>7.8100000000000001E-5</v>
+      </c>
+      <c r="X14" s="1">
+        <v>1.6000000000000001E-4</v>
+      </c>
+      <c r="Y14" s="1">
+        <v>5.8799999999999998E-4</v>
+      </c>
+      <c r="Z14" s="1">
+        <v>5.7899999999999998E-5</v>
+      </c>
+      <c r="AA14" s="1">
+        <v>2.27E-5</v>
+      </c>
+      <c r="AB14" s="1">
+        <v>1.58E-3</v>
+      </c>
+      <c r="AC14" s="1">
+        <v>1E-14</v>
+      </c>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>11</v>
       </c>
+      <c r="B15">
+        <v>36.1</v>
+      </c>
+      <c r="C15">
+        <v>330</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.215</v>
+      </c>
+      <c r="E15">
+        <v>0.314</v>
+      </c>
+      <c r="F15" s="1">
+        <v>8.9599999999999999E-2</v>
+      </c>
+      <c r="G15">
+        <v>1.68</v>
+      </c>
+      <c r="H15" s="1">
+        <v>209000</v>
+      </c>
+      <c r="I15" s="1">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="J15" s="1">
+        <v>5.7899999999999998E-5</v>
+      </c>
+      <c r="K15" s="1">
+        <v>2.62E-5</v>
+      </c>
+      <c r="L15" s="1">
+        <v>1.0900000000000001E-5</v>
+      </c>
+      <c r="M15" s="1">
+        <v>2.02E-4</v>
+      </c>
+      <c r="N15" s="1">
+        <v>4.8E-8</v>
+      </c>
+      <c r="O15" s="1">
+        <v>1.1999999999999999E-6</v>
+      </c>
+      <c r="P15" s="1">
+        <v>4.5899999999999998E-5</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>1.7E-6</v>
+      </c>
+      <c r="R15" s="1">
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="S15" s="1">
+        <v>1.8699999999999999E-8</v>
+      </c>
+      <c r="T15" s="1">
+        <v>5.0900000000000001E-4</v>
+      </c>
+      <c r="U15" s="1">
+        <v>3.43E-5</v>
+      </c>
+      <c r="V15" s="1">
+        <v>4.6500000000000004E-6</v>
+      </c>
+      <c r="W15" s="1">
+        <v>7.8100000000000001E-5</v>
+      </c>
+      <c r="X15" s="1">
+        <v>1.6000000000000001E-4</v>
+      </c>
+      <c r="Y15" s="1">
+        <v>5.7899999999999998E-4</v>
+      </c>
+      <c r="Z15" s="1">
+        <v>3.3000000000000003E-5</v>
+      </c>
+      <c r="AA15" s="1">
+        <v>2.0800000000000001E-5</v>
+      </c>
+      <c r="AB15" s="1">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="AC15" s="1">
+        <v>1E-14</v>
+      </c>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>12</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="C16">
+        <v>330</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.31</v>
+      </c>
+      <c r="E16">
+        <v>0.31</v>
+      </c>
+      <c r="F16" s="1">
+        <v>7.8100000000000003E-2</v>
+      </c>
+      <c r="G16">
+        <v>1.66</v>
+      </c>
+      <c r="H16" s="1">
+        <v>209000</v>
+      </c>
+      <c r="I16" s="1">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="J16" s="1">
+        <v>5.5999999999999999E-5</v>
+      </c>
+      <c r="K16" s="1">
+        <v>3.15E-5</v>
+      </c>
+      <c r="L16" s="1">
+        <v>6.2999999999999998E-6</v>
+      </c>
+      <c r="M16" s="1">
+        <v>2.41E-4</v>
+      </c>
+      <c r="N16" s="1">
+        <v>4.9399999999999999E-8</v>
+      </c>
+      <c r="O16" s="1">
+        <v>1.9599999999999999E-6</v>
+      </c>
+      <c r="P16" s="1">
+        <v>4.3600000000000003E-5</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>1.7E-6</v>
+      </c>
+      <c r="R16" s="1">
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="S16" s="1">
+        <v>3.18E-8</v>
+      </c>
+      <c r="T16" s="1">
+        <v>4.9799999999999996E-4</v>
+      </c>
+      <c r="U16" s="1">
+        <v>3.3899999999999997E-5</v>
+      </c>
+      <c r="V16" s="1">
+        <v>5.0100000000000003E-6</v>
+      </c>
+      <c r="W16" s="1">
+        <v>7.8100000000000001E-5</v>
+      </c>
+      <c r="X16" s="1">
+        <v>1.6000000000000001E-4</v>
+      </c>
+      <c r="Y16" s="1">
+        <v>5.6599999999999999E-4</v>
+      </c>
+      <c r="Z16" s="1">
+        <v>1.95E-5</v>
+      </c>
+      <c r="AA16" s="1">
+        <v>1.7600000000000001E-5</v>
+      </c>
+      <c r="AB16" s="1">
+        <v>9.859999999999999E-4</v>
+      </c>
+      <c r="AC16" s="1">
+        <v>1E-14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>13</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>10.9</v>
+      </c>
+      <c r="C17">
+        <v>330</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="E17">
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="F17" s="1">
+        <v>6.3700000000000007E-2</v>
+      </c>
+      <c r="G17">
+        <v>1.65</v>
+      </c>
+      <c r="H17" s="1">
+        <v>209000</v>
+      </c>
+      <c r="I17" s="1">
+        <v>2.99E-4</v>
+      </c>
+      <c r="J17" s="1">
+        <v>5.5899999999999997E-5</v>
+      </c>
+      <c r="K17" s="1">
+        <v>4.4499999999999997E-5</v>
+      </c>
+      <c r="L17" s="1">
+        <v>3.1200000000000002E-6</v>
+      </c>
+      <c r="M17" s="1">
+        <v>2.7599999999999999E-4</v>
+      </c>
+      <c r="N17" s="1">
+        <v>5.1900000000000002E-8</v>
+      </c>
+      <c r="O17" s="1">
+        <v>3.1200000000000002E-6</v>
+      </c>
+      <c r="P17" s="1">
+        <v>6.5099999999999997E-5</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>1.7E-6</v>
+      </c>
+      <c r="R17" s="1">
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="S17" s="1">
+        <v>5.6099999999999999E-8</v>
+      </c>
+      <c r="T17" s="1">
+        <v>4.8200000000000001E-4</v>
+      </c>
+      <c r="U17" s="1">
+        <v>3.4999999999999997E-5</v>
+      </c>
+      <c r="V17" s="1">
+        <v>5.22E-6</v>
+      </c>
+      <c r="W17" s="1">
+        <v>7.8100000000000001E-5</v>
+      </c>
+      <c r="X17" s="1">
+        <v>1.5899999999999999E-4</v>
+      </c>
+      <c r="Y17" s="1">
+        <v>5.4799999999999998E-4</v>
+      </c>
+      <c r="Z17" s="1">
+        <v>1.08E-5</v>
+      </c>
+      <c r="AA17" s="1">
+        <v>1.2300000000000001E-5</v>
+      </c>
+      <c r="AB17" s="1">
+        <v>7.2199999999999999E-4</v>
+      </c>
+      <c r="AC17" s="1">
+        <v>1E-14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>14</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>5.93</v>
+      </c>
+      <c r="C18">
+        <v>330</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.503</v>
+      </c>
+      <c r="E18">
+        <v>0.3</v>
+      </c>
+      <c r="F18" s="1">
+        <v>5.0299999999999997E-2</v>
+      </c>
+      <c r="G18">
+        <v>1.63</v>
+      </c>
+      <c r="H18" s="1">
+        <v>209000</v>
+      </c>
+      <c r="I18" s="1">
+        <v>2.9500000000000001E-4</v>
+      </c>
+      <c r="J18" s="1">
+        <v>5.6400000000000002E-5</v>
+      </c>
+      <c r="K18" s="1">
+        <v>7.4800000000000002E-5</v>
+      </c>
+      <c r="L18" s="1">
+        <v>1.11E-6</v>
+      </c>
+      <c r="M18" s="1">
+        <v>3.3300000000000002E-4</v>
+      </c>
+      <c r="N18" s="1">
+        <v>5.6500000000000003E-8</v>
+      </c>
+      <c r="O18" s="1">
+        <v>4.6199999999999998E-6</v>
+      </c>
+      <c r="P18" s="1">
+        <v>1.01E-4</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>1.7E-6</v>
+      </c>
+      <c r="R18" s="1">
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="S18" s="1">
+        <v>9.9900000000000001E-8</v>
+      </c>
+      <c r="T18" s="1">
+        <v>4.6000000000000001E-4</v>
+      </c>
+      <c r="U18" s="1">
+        <v>3.65E-5</v>
+      </c>
+      <c r="V18" s="1">
+        <v>5.5999999999999997E-6</v>
+      </c>
+      <c r="W18" s="1">
+        <v>7.8100000000000001E-5</v>
+      </c>
+      <c r="X18" s="1">
+        <v>1.5699999999999999E-4</v>
+      </c>
+      <c r="Y18" s="1">
+        <v>5.2800000000000004E-4</v>
+      </c>
+      <c r="Z18" s="1">
+        <v>6.5899999999999996E-6</v>
+      </c>
+      <c r="AA18" s="1">
+        <v>7.3200000000000002E-6</v>
+      </c>
+      <c r="AB18" s="1">
+        <v>4.9600000000000002E-4</v>
+      </c>
+      <c r="AC18" s="1">
+        <v>1E-14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>15</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>5</v>
+      </c>
+      <c r="C19">
+        <v>330</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.65100000000000002</v>
+      </c>
+      <c r="E19">
+        <v>0.29399999999999998</v>
+      </c>
+      <c r="F19" s="1">
+        <v>3.9399999999999998E-2</v>
+      </c>
+      <c r="G19">
+        <v>1.61</v>
+      </c>
+      <c r="H19" s="1">
+        <v>209000</v>
+      </c>
+      <c r="I19" s="1">
+        <v>2.8299999999999999E-4</v>
+      </c>
+      <c r="J19" s="1">
+        <v>5.7500000000000002E-5</v>
+      </c>
+      <c r="K19" s="1">
+        <v>1.7100000000000001E-4</v>
+      </c>
+      <c r="L19" s="1">
+        <v>4.4700000000000002E-7</v>
+      </c>
+      <c r="M19" s="1">
+        <v>4.5199999999999998E-4</v>
+      </c>
+      <c r="N19" s="1">
+        <v>6.7500000000000002E-8</v>
+      </c>
+      <c r="O19" s="1">
+        <v>7.0899999999999999E-6</v>
+      </c>
+      <c r="P19" s="1">
+        <v>1.63E-4</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>1.7E-6</v>
+      </c>
+      <c r="R19" s="1">
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="S19" s="1">
+        <v>1.7800000000000001E-7</v>
+      </c>
+      <c r="T19" s="1">
+        <v>4.26E-4</v>
+      </c>
+      <c r="U19" s="1">
+        <v>3.6199999999999999E-5</v>
+      </c>
+      <c r="V19" s="1">
+        <v>6.8600000000000004E-6</v>
+      </c>
+      <c r="W19" s="1">
+        <v>7.8100000000000001E-5</v>
+      </c>
+      <c r="X19" s="1">
+        <v>1.55E-4</v>
+      </c>
+      <c r="Y19" s="1">
+        <v>5.0299999999999997E-4</v>
+      </c>
+      <c r="Z19" s="1">
+        <v>4.1999999999999996E-6</v>
+      </c>
+      <c r="AA19" s="1">
+        <v>4.5199999999999999E-6</v>
+      </c>
+      <c r="AB19" s="1">
+        <v>3.3500000000000001E-4</v>
+      </c>
+      <c r="AC19" s="1">
+        <v>1E-14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>16</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>3.95</v>
+      </c>
+      <c r="C20">
+        <v>330</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0.87</v>
+      </c>
+      <c r="E20">
+        <v>0.28799999999999998</v>
+      </c>
+      <c r="F20" s="1">
+        <v>3.0700000000000002E-2</v>
+      </c>
+      <c r="G20">
+        <v>1.58</v>
+      </c>
+      <c r="H20" s="1">
+        <v>209000</v>
+      </c>
+      <c r="I20" s="1">
+        <v>2.6800000000000001E-4</v>
+      </c>
+      <c r="J20" s="1">
+        <v>5.7500000000000002E-5</v>
+      </c>
+      <c r="K20" s="1">
+        <v>3.19E-4</v>
+      </c>
+      <c r="L20" s="1">
+        <v>2.11E-7</v>
+      </c>
+      <c r="M20" s="1">
+        <v>7.3700000000000002E-4</v>
+      </c>
+      <c r="N20" s="1">
+        <v>8.2500000000000004E-8</v>
+      </c>
+      <c r="O20" s="1">
+        <v>1.0499999999999999E-5</v>
+      </c>
+      <c r="P20" s="1">
+        <v>2.3699999999999999E-4</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>1.7E-6</v>
+      </c>
+      <c r="R20" s="1">
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="S20" s="1">
+        <v>3.1600000000000002E-7</v>
+      </c>
+      <c r="T20" s="1">
+        <v>3.88E-4</v>
+      </c>
+      <c r="U20" s="1">
+        <v>3.5800000000000003E-5</v>
+      </c>
+      <c r="V20" s="1">
+        <v>8.7700000000000007E-6</v>
+      </c>
+      <c r="W20" s="1">
+        <v>7.8100000000000001E-5</v>
+      </c>
+      <c r="X20" s="1">
+        <v>1.5200000000000001E-4</v>
+      </c>
+      <c r="Y20" s="1">
+        <v>4.7699999999999999E-4</v>
+      </c>
+      <c r="Z20" s="1">
+        <v>2.9399999999999998E-6</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB20" s="1">
+        <v>2.14E-4</v>
+      </c>
+      <c r="AC20" s="1">
+        <v>1E-14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>17</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>3.85</v>
+      </c>
+      <c r="C21">
+        <v>330</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1.19</v>
+      </c>
+      <c r="E21">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="F21" s="1">
+        <v>2.4899999999999999E-2</v>
+      </c>
+      <c r="G21">
+        <v>1.55</v>
+      </c>
+      <c r="H21" s="1">
+        <v>209000</v>
+      </c>
+      <c r="I21" s="1">
+        <v>2.5199999999999999E-5</v>
+      </c>
+      <c r="J21" s="1">
+        <v>5.3699999999999997E-5</v>
+      </c>
+      <c r="K21" s="1">
+        <v>5.1900000000000004E-4</v>
+      </c>
+      <c r="L21" s="1">
+        <v>1.1000000000000001E-7</v>
+      </c>
+      <c r="M21" s="1">
+        <v>1.31E-3</v>
+      </c>
+      <c r="N21" s="1">
+        <v>1.04E-7</v>
+      </c>
+      <c r="O21" s="1">
+        <v>1.6900000000000001E-5</v>
+      </c>
+      <c r="P21" s="1">
+        <v>3.1300000000000002E-4</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>1.7E-6</v>
+      </c>
+      <c r="R21" s="1">
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="S21" s="1">
+        <v>5.6499999999999999E-7</v>
+      </c>
+      <c r="T21" s="1">
+        <v>3.48E-4</v>
+      </c>
+      <c r="U21" s="1">
+        <v>3.4999999999999997E-5</v>
+      </c>
+      <c r="V21" s="1">
+        <v>1.2E-5</v>
+      </c>
+      <c r="W21" s="1">
+        <v>7.8100000000000001E-5</v>
+      </c>
+      <c r="X21" s="1">
+        <v>1.4899999999999999E-4</v>
+      </c>
+      <c r="Y21" s="1">
+        <v>4.4900000000000002E-4</v>
+      </c>
+      <c r="Z21" s="1">
+        <v>2.3E-6</v>
+      </c>
+      <c r="AA21" s="1">
+        <v>1.55E-6</v>
+      </c>
+      <c r="AB21" s="1">
+        <v>1.4899999999999999E-4</v>
+      </c>
+      <c r="AC21" s="1">
+        <v>1E-14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>18</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>3.83</v>
+      </c>
+      <c r="C22">
+        <v>330</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1.59</v>
+      </c>
+      <c r="E22">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="F22" s="1">
+        <v>1.9699999999999999E-2</v>
+      </c>
+      <c r="G22">
+        <v>1.52</v>
+      </c>
+      <c r="H22" s="1">
+        <v>209000</v>
+      </c>
+      <c r="I22" s="1">
+        <v>2.4000000000000001E-4</v>
+      </c>
+      <c r="J22" s="1">
+        <v>4.7800000000000003E-5</v>
+      </c>
+      <c r="K22" s="1">
+        <v>7.7099999999999998E-4</v>
+      </c>
+      <c r="L22" s="1">
+        <v>6.7000000000000004E-8</v>
+      </c>
+      <c r="M22" s="1">
+        <v>2.1099999999999999E-3</v>
+      </c>
+      <c r="N22" s="1">
+        <v>1.3E-7</v>
+      </c>
+      <c r="O22" s="1">
+        <v>2.5700000000000001E-5</v>
+      </c>
+      <c r="P22" s="1">
+        <v>3.8499999999999998E-4</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>1.7E-6</v>
+      </c>
+      <c r="R22" s="1">
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="S22" s="1">
+        <v>1.04E-6</v>
+      </c>
+      <c r="T22" s="1">
+        <v>3.0899999999999998E-4</v>
+      </c>
+      <c r="U22" s="1">
+        <v>3.4199999999999998E-5</v>
+      </c>
+      <c r="V22" s="1">
+        <v>1.63E-5</v>
+      </c>
+      <c r="W22" s="1">
+        <v>7.8100000000000001E-5</v>
+      </c>
+      <c r="X22" s="1">
+        <v>1.45E-4</v>
+      </c>
+      <c r="Y22" s="1">
+        <v>4.2099999999999999E-4</v>
+      </c>
+      <c r="Z22" s="1">
+        <v>2.2400000000000002E-6</v>
+      </c>
+      <c r="AA22" s="1">
+        <v>8.6300000000000004E-7</v>
+      </c>
+      <c r="AB22" s="1">
+        <v>1.05E-4</v>
+      </c>
+      <c r="AC22" s="1">
+        <v>1E-14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>19</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>3.85</v>
+      </c>
+      <c r="C23">
+        <v>330</v>
+      </c>
+      <c r="D23" s="1">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="E23">
+        <v>0.253</v>
+      </c>
+      <c r="F23" s="1">
+        <v>1.55E-2</v>
+      </c>
+      <c r="G23">
+        <v>1.48</v>
+      </c>
+      <c r="H23" s="1">
+        <v>209000</v>
+      </c>
+      <c r="I23" s="1">
+        <v>2.4399999999999999E-4</v>
+      </c>
+      <c r="J23" s="1">
+        <v>3.9700000000000003E-5</v>
+      </c>
+      <c r="K23" s="1">
+        <v>1.06E-3</v>
+      </c>
+      <c r="L23" s="1">
+        <v>3.9699999999999998E-8</v>
+      </c>
+      <c r="M23" s="1">
+        <v>3.1700000000000001E-3</v>
+      </c>
+      <c r="N23" s="1">
+        <v>1.6400000000000001E-7</v>
+      </c>
+      <c r="O23" s="1">
+        <v>4.0200000000000001E-5</v>
+      </c>
+      <c r="P23" s="1">
+        <v>4.4200000000000001E-4</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>1.7E-6</v>
+      </c>
+      <c r="R23" s="1">
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="S23" s="1">
+        <v>2.04E-6</v>
+      </c>
+      <c r="T23" s="1">
+        <v>2.7399999999999999E-4</v>
+      </c>
+      <c r="U23" s="1">
+        <v>3.3899999999999997E-5</v>
+      </c>
+      <c r="V23" s="1">
+        <v>2.26E-5</v>
+      </c>
+      <c r="W23" s="1">
+        <v>7.8100000000000001E-5</v>
+      </c>
+      <c r="X23" s="1">
+        <v>1.4100000000000001E-4</v>
+      </c>
+      <c r="Y23" s="1">
+        <v>3.9500000000000001E-4</v>
+      </c>
+      <c r="Z23" s="1">
+        <v>2.6800000000000002E-6</v>
+      </c>
+      <c r="AA23" s="1">
+        <v>5.3000000000000001E-7</v>
+      </c>
+      <c r="AB23" s="1">
+        <v>7.9599999999999997E-5</v>
+      </c>
+      <c r="AC23" s="1">
+        <v>1E-14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>20</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>3.9</v>
+      </c>
+      <c r="C24">
+        <v>330</v>
+      </c>
+      <c r="D24" s="1">
+        <v>2.58</v>
+      </c>
+      <c r="E24">
+        <v>0.23699999999999999</v>
+      </c>
+      <c r="F24" s="1">
+        <v>1.3299999999999999E-2</v>
+      </c>
+      <c r="G24">
+        <v>1.42</v>
+      </c>
+      <c r="H24" s="1">
+        <v>209000</v>
+      </c>
+      <c r="I24" s="1">
+        <v>2.5500000000000002E-4</v>
+      </c>
+      <c r="J24" s="1">
+        <v>3.1900000000000003E-5</v>
+      </c>
+      <c r="K24" s="1">
+        <v>1.39E-3</v>
+      </c>
+      <c r="L24" s="1">
+        <v>2.4100000000000001E-8</v>
+      </c>
+      <c r="M24" s="1">
+        <v>4.1999999999999997E-3</v>
+      </c>
+      <c r="N24" s="1">
+        <v>2.16E-7</v>
+      </c>
+      <c r="O24" s="1">
+        <v>5.77E-5</v>
+      </c>
+      <c r="P24" s="1">
+        <v>4.8899999999999996E-4</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>1.7E-6</v>
+      </c>
+      <c r="R24" s="1">
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="S24" s="1">
+        <v>4.6399999999999996E-6</v>
+      </c>
+      <c r="T24" s="1">
+        <v>2.41E-4</v>
+      </c>
+      <c r="U24" s="1">
+        <v>3.43E-5</v>
+      </c>
+      <c r="V24" s="1">
+        <v>3.0700000000000001E-5</v>
+      </c>
+      <c r="W24" s="1">
+        <v>7.8100000000000001E-5</v>
+      </c>
+      <c r="X24" s="1">
+        <v>1.37E-4</v>
+      </c>
+      <c r="Y24" s="1">
+        <v>3.6900000000000002E-4</v>
+      </c>
+      <c r="Z24" s="1">
+        <v>3.6799999999999999E-6</v>
+      </c>
+      <c r="AA24" s="1">
+        <v>3.1E-7</v>
+      </c>
+      <c r="AB24" s="1">
+        <v>6.0099999999999997E-5</v>
+      </c>
+      <c r="AC24" s="1">
+        <v>1E-14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>21</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>3.98</v>
+      </c>
+      <c r="C25">
+        <v>330</v>
+      </c>
+      <c r="D25" s="1">
+        <v>3.03</v>
+      </c>
+      <c r="E25">
+        <v>0.219</v>
+      </c>
+      <c r="F25" s="1">
+        <v>1.23E-2</v>
+      </c>
+      <c r="G25">
+        <v>1.36</v>
+      </c>
+      <c r="H25" s="1">
+        <v>209000</v>
+      </c>
+      <c r="I25" s="1">
+        <v>2.7700000000000001E-4</v>
+      </c>
+      <c r="J25" s="1">
+        <v>2.6699999999999998E-5</v>
+      </c>
+      <c r="K25" s="1">
+        <v>1.7600000000000001E-3</v>
+      </c>
+      <c r="L25" s="1">
+        <v>1.92E-8</v>
+      </c>
+      <c r="M25" s="1">
+        <v>4.9399999999999999E-3</v>
+      </c>
+      <c r="N25" s="1">
+        <v>3.3999999999999997E-7</v>
+      </c>
+      <c r="O25" s="1">
+        <v>7.7700000000000005E-5</v>
+      </c>
+      <c r="P25" s="1">
+        <v>5.22E-4</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>1.7E-6</v>
+      </c>
+      <c r="R25" s="1">
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="S25" s="1">
+        <v>8.1499999999999999E-6</v>
+      </c>
+      <c r="T25" s="1">
+        <v>2.14E-4</v>
+      </c>
+      <c r="U25" s="1">
+        <v>3.68E-5</v>
+      </c>
+      <c r="V25" s="1">
+        <v>4.2899999999999999E-5</v>
+      </c>
+      <c r="W25" s="1">
+        <v>7.8100000000000001E-5</v>
+      </c>
+      <c r="X25" s="1">
+        <v>1.34E-4</v>
+      </c>
+      <c r="Y25" s="1">
+        <v>3.4299999999999999E-4</v>
+      </c>
+      <c r="Z25" s="1">
+        <v>5.6200000000000004E-6</v>
+      </c>
+      <c r="AA25" s="1">
+        <v>1.8900000000000001E-7</v>
+      </c>
+      <c r="AB25" s="1">
+        <v>4.57E-5</v>
+      </c>
+      <c r="AC25" s="1">
+        <v>1E-14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>22</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>4.07</v>
+      </c>
+      <c r="C26">
+        <v>330</v>
+      </c>
+      <c r="D26" s="1">
+        <v>3.65</v>
+      </c>
+      <c r="E26">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="F26" s="1">
+        <v>1.23E-2</v>
+      </c>
+      <c r="G26">
+        <v>1.27</v>
+      </c>
+      <c r="H26" s="1">
+        <v>209000</v>
+      </c>
+      <c r="I26" s="1">
+        <v>3.0699999999999998E-4</v>
+      </c>
+      <c r="J26" s="1">
+        <v>2.2799999999999999E-5</v>
+      </c>
+      <c r="K26" s="1">
+        <v>2.16E-3</v>
+      </c>
+      <c r="L26" s="1">
+        <v>1.7199999999999999E-8</v>
+      </c>
+      <c r="M26" s="1">
+        <v>5.4599999999999996E-3</v>
+      </c>
+      <c r="N26" s="1">
+        <v>5.0900000000000002E-7</v>
+      </c>
+      <c r="O26" s="1">
+        <v>9.8999999999999994E-5</v>
+      </c>
+      <c r="P26" s="1">
+        <v>5.4900000000000001E-4</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>1.7E-6</v>
+      </c>
+      <c r="R26" s="1">
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="S26" s="1">
+        <v>1.0699999999999999E-5</v>
+      </c>
+      <c r="T26" s="1">
+        <v>1.8799999999999999E-4</v>
+      </c>
+      <c r="U26" s="1">
+        <v>4.0299999999999997E-5</v>
+      </c>
+      <c r="V26" s="1">
+        <v>5.7599999999999997E-5</v>
+      </c>
+      <c r="W26" s="1">
+        <v>7.8100000000000001E-5</v>
+      </c>
+      <c r="X26" s="1">
+        <v>1.2999999999999999E-4</v>
+      </c>
+      <c r="Y26" s="1">
+        <v>3.1700000000000001E-4</v>
+      </c>
+      <c r="Z26" s="1">
+        <v>1.03E-5</v>
+      </c>
+      <c r="AA26" s="1">
+        <v>1.04E-7</v>
+      </c>
+      <c r="AB26" s="1">
+        <v>3.4E-5</v>
+      </c>
+      <c r="AC26" s="1">
+        <v>1E-14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>23</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>4.2</v>
+      </c>
+      <c r="C27">
+        <v>330</v>
+      </c>
+      <c r="D27" s="1">
+        <v>4.17</v>
+      </c>
+      <c r="E27">
+        <v>0.19700000000000001</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="G27">
+        <v>1.19</v>
+      </c>
+      <c r="H27" s="1">
+        <v>209000</v>
+      </c>
+      <c r="I27" s="1">
+        <v>3.6000000000000002E-4</v>
+      </c>
+      <c r="J27" s="1">
+        <v>2.0699999999999998E-5</v>
+      </c>
+      <c r="K27" s="1">
+        <v>2.5799999999999998E-3</v>
+      </c>
+      <c r="L27" s="1">
+        <v>1.59E-8</v>
+      </c>
+      <c r="M27" s="1">
+        <v>5.7400000000000003E-3</v>
+      </c>
+      <c r="N27" s="1">
+        <v>7.5899999999999995E-7</v>
+      </c>
+      <c r="O27" s="1">
+        <v>1.2300000000000001E-4</v>
+      </c>
+      <c r="P27" s="1">
+        <v>5.7499999999999999E-4</v>
+      </c>
+      <c r="Q27" s="1">
+        <v>1.7E-6</v>
+      </c>
+      <c r="R27" s="1">
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="S27" s="1">
+        <v>1.52E-5</v>
+      </c>
+      <c r="T27" s="1">
+        <v>1.64E-4</v>
+      </c>
+      <c r="U27" s="1">
+        <v>4.5000000000000003E-5</v>
+      </c>
+      <c r="V27" s="1">
+        <v>7.6500000000000003E-5</v>
+      </c>
+      <c r="W27" s="1">
+        <v>7.8100000000000001E-5</v>
+      </c>
+      <c r="X27" s="1">
+        <v>1.25E-4</v>
+      </c>
+      <c r="Y27" s="1">
+        <v>2.8600000000000001E-4</v>
+      </c>
+      <c r="Z27" s="1">
+        <v>1.9700000000000001E-5</v>
+      </c>
+      <c r="AA27" s="1">
+        <v>5.7499999999999999E-8</v>
+      </c>
+      <c r="AB27" s="1">
+        <v>2.5999999999999998E-5</v>
+      </c>
+      <c r="AC27" s="1">
+        <v>1E-14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>24</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>4.3</v>
+      </c>
+      <c r="C28">
+        <v>330</v>
+      </c>
+      <c r="D28" s="1">
+        <v>4.63</v>
+      </c>
+      <c r="E28">
+        <v>0.188</v>
+      </c>
+      <c r="F28" s="1">
+        <v>1.4E-2</v>
+      </c>
+      <c r="G28">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="H28" s="1">
+        <v>209000</v>
+      </c>
+      <c r="I28" s="1">
+        <v>4.5100000000000001E-4</v>
+      </c>
+      <c r="J28" s="1">
+        <v>1.9000000000000001E-5</v>
+      </c>
+      <c r="K28" s="1">
+        <v>3.0599999999999998E-3</v>
+      </c>
+      <c r="L28" s="1">
+        <v>1.44E-8</v>
+      </c>
+      <c r="M28" s="1">
+        <v>5.8399999999999997E-3</v>
+      </c>
+      <c r="N28" s="1">
+        <v>1.1599999999999999E-6</v>
+      </c>
+      <c r="O28" s="1">
+        <v>1.4999999999999999E-4</v>
+      </c>
+      <c r="P28" s="1">
+        <v>6.0400000000000004E-4</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>1.7E-6</v>
+      </c>
+      <c r="R28" s="1">
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="S28" s="1">
+        <v>2.2399999999999999E-5</v>
+      </c>
+      <c r="T28" s="1">
+        <v>1.37E-4</v>
+      </c>
+      <c r="U28" s="1">
+        <v>5.0599999999999997E-5</v>
+      </c>
+      <c r="V28" s="1">
+        <v>9.9199999999999999E-5</v>
+      </c>
+      <c r="W28" s="1">
+        <v>7.8100000000000001E-5</v>
+      </c>
+      <c r="X28" s="1">
+        <v>1.1900000000000001E-4</v>
+      </c>
+      <c r="Y28" s="1">
+        <v>2.4800000000000001E-4</v>
+      </c>
+      <c r="Z28" s="1">
+        <v>3.6999999999999998E-5</v>
+      </c>
+      <c r="AA28" s="1">
+        <v>2.2300000000000001E-8</v>
+      </c>
+      <c r="AB28" s="1">
+        <v>1.8899999999999999E-5</v>
+      </c>
+      <c r="AC28" s="1">
+        <v>1E-14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>25</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>4.43</v>
+      </c>
+      <c r="C29">
+        <v>330</v>
+      </c>
+      <c r="D29" s="1">
+        <v>5.12</v>
+      </c>
+      <c r="E29">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="F29" s="1">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="G29">
+        <v>1.06</v>
+      </c>
+      <c r="H29" s="1">
+        <v>209000</v>
+      </c>
+      <c r="I29" s="1">
+        <v>6.8499999999999995E-4</v>
+      </c>
+      <c r="J29" s="1">
+        <v>1.7499999999999998E-5</v>
+      </c>
+      <c r="K29" s="1">
+        <v>3.7399999999999998E-3</v>
+      </c>
+      <c r="L29" s="1">
+        <v>1.2299999999999999E-8</v>
+      </c>
+      <c r="M29" s="1">
+        <v>5.6100000000000004E-3</v>
+      </c>
+      <c r="N29" s="1">
+        <v>2.1799999999999999E-6</v>
+      </c>
+      <c r="O29" s="1">
+        <v>1.8200000000000001E-4</v>
+      </c>
+      <c r="P29" s="1">
+        <v>6.5099999999999999E-4</v>
+      </c>
+      <c r="Q29" s="1">
+        <v>1.7099999999999999E-6</v>
+      </c>
+      <c r="R29" s="1">
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="S29" s="1">
+        <v>3.9700000000000003E-5</v>
+      </c>
+      <c r="T29" s="1">
+        <v>1.08E-4</v>
+      </c>
+      <c r="U29" s="1">
+        <v>5.8199999999999998E-5</v>
+      </c>
+      <c r="V29" s="1">
+        <v>1.3100000000000001E-4</v>
+      </c>
+      <c r="W29" s="1">
+        <v>7.8100000000000001E-5</v>
+      </c>
+      <c r="X29" s="1">
+        <v>1.13E-4</v>
+      </c>
+      <c r="Y29" s="1">
+        <v>1.94E-4</v>
+      </c>
+      <c r="Z29" s="1">
+        <v>6.2000000000000003E-5</v>
+      </c>
+      <c r="AA29" s="1">
+        <v>8.5099999999999998E-9</v>
+      </c>
+      <c r="AB29" s="1">
+        <v>1.22E-5</v>
+      </c>
+      <c r="AC29" s="1">
+        <v>1E-14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>27.5</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>4.58</v>
+      </c>
+      <c r="C30">
+        <v>330</v>
+      </c>
+      <c r="D30" s="1">
+        <v>5.8</v>
+      </c>
+      <c r="E30">
+        <v>0.159</v>
+      </c>
+      <c r="F30" s="1">
+        <v>1.6E-2</v>
+      </c>
+      <c r="G30">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="H30" s="1">
+        <v>209000</v>
+      </c>
+      <c r="I30" s="1">
+        <v>1.2800000000000001E-3</v>
+      </c>
+      <c r="J30" s="1">
+        <v>1.5400000000000002E-5</v>
+      </c>
+      <c r="K30" s="1">
+        <v>4.81E-3</v>
+      </c>
+      <c r="L30" s="1">
+        <v>9.3700000000000005E-9</v>
+      </c>
+      <c r="M30" s="1">
+        <v>4.8199999999999996E-3</v>
+      </c>
+      <c r="N30" s="1">
+        <v>5.0000000000000004E-6</v>
+      </c>
+      <c r="O30" s="1">
+        <v>2.3000000000000001E-4</v>
+      </c>
+      <c r="P30" s="1">
+        <v>7.5100000000000004E-4</v>
+      </c>
+      <c r="Q30" s="1">
+        <v>1.7600000000000001E-6</v>
+      </c>
+      <c r="R30" s="1">
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="S30" s="1">
+        <v>8.4800000000000001E-5</v>
+      </c>
+      <c r="T30" s="1">
+        <v>6.7000000000000002E-5</v>
+      </c>
+      <c r="U30" s="1">
+        <v>7.2100000000000004E-5</v>
+      </c>
+      <c r="V30" s="1">
+        <v>1.84E-4</v>
+      </c>
+      <c r="W30" s="1">
+        <v>7.8100000000000001E-5</v>
+      </c>
+      <c r="X30" s="1">
+        <v>1.05E-4</v>
+      </c>
+      <c r="Y30" s="1">
+        <v>1.1E-4</v>
+      </c>
+      <c r="Z30" s="1">
+        <v>1.03E-4</v>
+      </c>
+      <c r="AA30" s="1">
+        <v>4.0899999999999997E-9</v>
+      </c>
+      <c r="AB30" s="1">
+        <v>5.7400000000000001E-6</v>
+      </c>
+      <c r="AC30" s="1">
+        <v>1E-14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>4.7300000000000004</v>
+      </c>
+      <c r="C31">
+        <v>330</v>
+      </c>
+      <c r="D31" s="1">
+        <v>6.55</v>
+      </c>
+      <c r="E31">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="F31" s="1">
+        <v>1.7100000000000001E-2</v>
+      </c>
+      <c r="G31">
+        <v>0.91400000000000003</v>
+      </c>
+      <c r="H31" s="1">
+        <v>209000</v>
+      </c>
+      <c r="I31" s="1">
+        <v>2.4499999999999999E-3</v>
+      </c>
+      <c r="J31" s="1">
+        <v>1.34E-5</v>
+      </c>
+      <c r="K31" s="1">
+        <v>6.1599999999999997E-3</v>
+      </c>
+      <c r="L31" s="1">
+        <v>6.3499999999999998E-9</v>
+      </c>
+      <c r="M31" s="1">
+        <v>3.7399999999999998E-3</v>
+      </c>
+      <c r="N31" s="1">
+        <v>1.17E-5</v>
+      </c>
+      <c r="O31" s="1">
+        <v>2.8299999999999999E-4</v>
+      </c>
+      <c r="P31" s="1">
+        <v>9.8799999999999995E-4</v>
+      </c>
+      <c r="Q31" s="1">
+        <v>1.9E-6</v>
+      </c>
+      <c r="R31" s="1">
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="S31" s="1">
+        <v>1.85E-4</v>
+      </c>
+      <c r="T31" s="1">
+        <v>2.9600000000000001E-5</v>
+      </c>
+      <c r="U31" s="1">
+        <v>8.7299999999999994E-5</v>
+      </c>
+      <c r="V31" s="1">
+        <v>2.4499999999999999E-4</v>
+      </c>
+      <c r="W31" s="1">
+        <v>7.8100000000000001E-5</v>
+      </c>
+      <c r="X31" s="1">
+        <v>9.7299999999999993E-5</v>
+      </c>
+      <c r="Y31" s="1">
+        <v>4.7200000000000002E-5</v>
+      </c>
+      <c r="Z31" s="1">
+        <v>1.36E-4</v>
+      </c>
+      <c r="AA31" s="1">
+        <v>2.52E-9</v>
+      </c>
+      <c r="AB31" s="1">
+        <v>2.1399999999999998E-6</v>
+      </c>
+      <c r="AC31" s="1">
+        <v>1E-14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>32.5</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>4.83</v>
+      </c>
+      <c r="C32">
+        <v>330</v>
+      </c>
+      <c r="D32" s="1">
+        <v>7.37</v>
+      </c>
+      <c r="E32">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="F32" s="1">
+        <v>1.8499999999999999E-2</v>
+      </c>
+      <c r="G32">
+        <v>0.83</v>
+      </c>
+      <c r="H32" s="1">
+        <v>209000</v>
+      </c>
+      <c r="I32" s="1">
+        <v>4.5300000000000002E-3</v>
+      </c>
+      <c r="J32" s="1">
+        <v>1.2099999999999999E-5</v>
+      </c>
+      <c r="K32" s="1">
+        <v>7.2100000000000003E-3</v>
+      </c>
+      <c r="L32" s="1">
+        <v>3.6800000000000001E-9</v>
+      </c>
+      <c r="M32" s="1">
+        <v>2.5899999999999999E-3</v>
+      </c>
+      <c r="N32" s="1">
+        <v>3.4E-5</v>
+      </c>
+      <c r="O32" s="1">
+        <v>3.2000000000000003E-4</v>
+      </c>
+      <c r="P32" s="1">
+        <v>1.2800000000000001E-3</v>
+      </c>
+      <c r="Q32" s="1">
+        <v>2.26E-6</v>
+      </c>
+      <c r="R32" s="1">
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="S32" s="1">
+        <v>3.57E-4</v>
+      </c>
+      <c r="T32" s="1">
+        <v>1.2099999999999999E-5</v>
+      </c>
+      <c r="U32" s="1">
+        <v>1.01E-4</v>
+      </c>
+      <c r="V32" s="1">
+        <v>2.9599999999999998E-4</v>
+      </c>
+      <c r="W32" s="1">
+        <v>7.8100000000000001E-5</v>
+      </c>
+      <c r="X32" s="1">
+        <v>9.0400000000000002E-5</v>
+      </c>
+      <c r="Y32" s="1">
+        <v>1.7900000000000001E-5</v>
+      </c>
+      <c r="Z32" s="1">
+        <v>1.36E-4</v>
+      </c>
+      <c r="AA32" s="1">
+        <v>1.86E-9</v>
+      </c>
+      <c r="AB32" s="1">
+        <v>8.4900000000000005E-7</v>
+      </c>
+      <c r="AC32" s="1">
+        <v>1E-14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>35</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="C33">
+        <v>330</v>
+      </c>
+      <c r="D33" s="1">
+        <v>7.84</v>
+      </c>
+      <c r="E33" s="1">
+        <v>9.2799999999999994E-2</v>
+      </c>
+      <c r="F33" s="1">
+        <v>2.01E-2</v>
+      </c>
+      <c r="G33" s="1">
+        <v>0.746</v>
+      </c>
+      <c r="H33" s="1">
+        <v>209000</v>
+      </c>
+      <c r="I33" s="1">
+        <v>7.1399999999999996E-3</v>
+      </c>
+      <c r="J33" s="1">
+        <v>1.1600000000000001E-5</v>
+      </c>
+      <c r="K33" s="1">
+        <v>7.28E-3</v>
+      </c>
+      <c r="L33" s="1">
+        <v>1.8199999999999999E-9</v>
+      </c>
+      <c r="M33" s="1">
+        <v>1.64E-3</v>
+      </c>
+      <c r="N33" s="1">
+        <v>8.3499999999999997E-5</v>
+      </c>
+      <c r="O33" s="1">
+        <v>3.48E-4</v>
+      </c>
+      <c r="P33" s="1">
+        <v>1.57E-3</v>
+      </c>
+      <c r="Q33" s="1">
+        <v>2.8200000000000001E-6</v>
+      </c>
+      <c r="R33" s="1">
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="S33" s="1">
+        <v>5.0799999999999999E-4</v>
+      </c>
+      <c r="T33" s="1">
+        <v>4.3100000000000002E-6</v>
+      </c>
+      <c r="U33" s="1">
+        <v>1.11E-4</v>
+      </c>
+      <c r="V33" s="1">
+        <v>3.21E-4</v>
+      </c>
+      <c r="W33" s="1">
+        <v>7.8100000000000001E-5</v>
+      </c>
+      <c r="X33" s="1">
+        <v>8.4599999999999996E-5</v>
+      </c>
+      <c r="Y33" s="1">
+        <v>7.3499999999999999E-6</v>
+      </c>
+      <c r="Z33" s="1">
+        <v>1.13E-4</v>
+      </c>
+      <c r="AA33" s="1">
+        <v>1.5199999999999999E-9</v>
+      </c>
+      <c r="AB33" s="1">
+        <v>3.4200000000000002E-7</v>
+      </c>
+      <c r="AC33" s="1">
+        <v>1E-14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>37.5</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>4.95</v>
+      </c>
+      <c r="C34">
+        <v>330</v>
+      </c>
+      <c r="D34" s="1">
+        <v>7.8</v>
+      </c>
+      <c r="E34" s="1">
+        <v>6.6900000000000001E-2</v>
+      </c>
+      <c r="F34" s="1">
+        <v>2.2200000000000001E-2</v>
+      </c>
+      <c r="G34" s="1">
+        <v>0.66200000000000003</v>
+      </c>
+      <c r="H34" s="1">
+        <v>209000</v>
+      </c>
+      <c r="I34" s="1">
+        <v>9.3399999999999993E-3</v>
+      </c>
+      <c r="J34" s="1">
+        <v>1.2099999999999999E-5</v>
+      </c>
+      <c r="K34" s="1">
+        <v>6.2599999999999999E-3</v>
+      </c>
+      <c r="L34" s="1">
+        <v>9.2600000000000001E-10</v>
+      </c>
+      <c r="M34" s="1">
+        <v>9.68E-4</v>
+      </c>
+      <c r="N34" s="1">
+        <v>1.7000000000000001E-4</v>
+      </c>
+      <c r="O34" s="1">
+        <v>3.7199999999999999E-4</v>
+      </c>
+      <c r="P34" s="1">
+        <v>1.6900000000000001E-3</v>
+      </c>
+      <c r="Q34" s="1">
+        <v>3.6899999999999998E-6</v>
+      </c>
+      <c r="R34" s="1">
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="S34" s="1">
+        <v>6.0700000000000001E-4</v>
+      </c>
+      <c r="T34" s="1">
+        <v>1.5999999999999999E-6</v>
+      </c>
+      <c r="U34" s="1">
+        <v>1.13E-4</v>
+      </c>
+      <c r="V34" s="1">
+        <v>3.0400000000000002E-4</v>
+      </c>
+      <c r="W34" s="1">
+        <v>7.8100000000000001E-5</v>
+      </c>
+      <c r="X34" s="1">
+        <v>8.0199999999999998E-5</v>
+      </c>
+      <c r="Y34" s="1">
+        <v>3.0299999999999998E-6</v>
+      </c>
+      <c r="Z34" s="1">
+        <v>8.5099999999999995E-5</v>
+      </c>
+      <c r="AA34" s="1">
+        <v>1.32E-9</v>
+      </c>
+      <c r="AB34" s="1">
+        <v>1.3400000000000001E-7</v>
+      </c>
+      <c r="AC34" s="1">
+        <v>1E-14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>40</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>5.03</v>
+      </c>
+      <c r="C35">
+        <v>330</v>
+      </c>
+      <c r="D35" s="1">
+        <v>7.3</v>
+      </c>
+      <c r="E35" s="1">
+        <v>4.5100000000000001E-2</v>
+      </c>
+      <c r="F35" s="1">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="G35" s="1">
+        <v>0.56399999999999995</v>
+      </c>
+      <c r="H35" s="1">
+        <v>209000</v>
+      </c>
+      <c r="I35" s="1">
+        <v>1.2E-2</v>
+      </c>
+      <c r="J35" s="1">
+        <v>1.36E-5</v>
+      </c>
+      <c r="K35" s="1">
+        <v>4.0299999999999997E-3</v>
+      </c>
+      <c r="L35" s="2">
+        <v>2.9400000000000002E-10</v>
+      </c>
+      <c r="M35" s="1">
+        <v>5.3300000000000005E-4</v>
+      </c>
+      <c r="N35" s="1">
+        <v>2.8499999999999999E-4</v>
+      </c>
+      <c r="O35" s="1">
+        <v>3.9500000000000001E-4</v>
+      </c>
+      <c r="P35" s="1">
+        <v>1.74E-3</v>
+      </c>
+      <c r="Q35" s="1">
+        <v>4.9100000000000004E-6</v>
+      </c>
+      <c r="R35" s="1">
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="S35" s="1">
+        <v>5.9500000000000004E-4</v>
+      </c>
+      <c r="T35" s="1">
+        <v>6.7100000000000001E-7</v>
+      </c>
+      <c r="U35" s="1">
+        <v>1.03E-4</v>
+      </c>
+      <c r="V35" s="1">
+        <v>2.4800000000000001E-4</v>
+      </c>
+      <c r="W35" s="1">
+        <v>7.8100000000000001E-5</v>
+      </c>
+      <c r="X35" s="1">
+        <v>7.6299999999999998E-5</v>
+      </c>
+      <c r="Y35" s="1">
+        <v>1.3200000000000001E-6</v>
+      </c>
+      <c r="Z35" s="1">
+        <v>6.3700000000000003E-5</v>
+      </c>
+      <c r="AA35" s="1">
+        <v>1.1800000000000001E-9</v>
+      </c>
+      <c r="AB35" s="2">
+        <v>5.39E-8</v>
+      </c>
+      <c r="AC35" s="1">
+        <v>1E-14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>42.5</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>5.15</v>
+      </c>
+      <c r="C36">
+        <v>330</v>
+      </c>
+      <c r="D36" s="1">
+        <v>6.2</v>
+      </c>
+      <c r="E36" s="1">
+        <v>2.75E-2</v>
+      </c>
+      <c r="F36" s="1">
+        <v>2.8199999999999999E-2</v>
+      </c>
+      <c r="G36" s="1">
+        <v>0.46100000000000002</v>
+      </c>
+      <c r="H36" s="1">
+        <v>209000</v>
+      </c>
+      <c r="I36" s="1">
+        <v>1.9E-2</v>
+      </c>
+      <c r="J36" s="1">
+        <v>1.6500000000000001E-5</v>
+      </c>
+      <c r="K36" s="1">
+        <v>2.1700000000000001E-3</v>
+      </c>
+      <c r="L36" s="1">
+        <v>8.7199999999999994E-11</v>
+      </c>
+      <c r="M36" s="1">
+        <v>2.52E-4</v>
+      </c>
+      <c r="N36" s="1">
+        <v>4.06E-4</v>
+      </c>
+      <c r="O36" s="1">
+        <v>4.0999999999999999E-4</v>
+      </c>
+      <c r="P36" s="1">
+        <v>1.7600000000000001E-3</v>
+      </c>
+      <c r="Q36" s="1">
+        <v>6.1299999999999998E-6</v>
+      </c>
+      <c r="R36" s="1">
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="S36" s="1">
+        <v>4.3300000000000001E-4</v>
+      </c>
+      <c r="T36" s="1">
+        <v>4.3500000000000002E-7</v>
+      </c>
+      <c r="U36" s="1">
+        <v>7.9499999999999994E-5</v>
+      </c>
+      <c r="V36" s="1">
+        <v>1.64E-4</v>
+      </c>
+      <c r="W36" s="1">
+        <v>7.8100000000000001E-5</v>
+      </c>
+      <c r="X36" s="1">
+        <v>7.2999999999999999E-5</v>
+      </c>
+      <c r="Y36" s="1">
+        <v>8.6899999999999996E-7</v>
+      </c>
+      <c r="Z36" s="1">
+        <v>5.1700000000000003E-5</v>
+      </c>
+      <c r="AA36" s="1">
+        <v>1.08E-9</v>
+      </c>
+      <c r="AB36" s="1">
+        <v>2.25E-8</v>
+      </c>
+      <c r="AC36" s="1">
+        <v>1E-14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>45</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <v>5.23</v>
+      </c>
+      <c r="C37">
+        <v>330</v>
+      </c>
+      <c r="D37" s="1">
+        <v>5.25</v>
+      </c>
+      <c r="E37" s="1">
+        <v>1.5900000000000001E-2</v>
+      </c>
+      <c r="F37" s="1">
+        <v>3.2399999999999998E-2</v>
+      </c>
+      <c r="G37" s="1">
+        <v>0.36299999999999999</v>
+      </c>
+      <c r="H37" s="1">
+        <v>209000</v>
+      </c>
+      <c r="I37" s="1">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="J37" s="1">
+        <v>2.0999999999999999E-5</v>
+      </c>
+      <c r="K37" s="1">
+        <v>1.15E-3</v>
+      </c>
+      <c r="L37" s="1">
+        <v>2.9800000000000003E-11</v>
+      </c>
+      <c r="M37" s="1">
+        <v>1.21E-4</v>
+      </c>
+      <c r="N37" s="1">
+        <v>5.1099999999999995E-4</v>
+      </c>
+      <c r="O37" s="1">
+        <v>4.2099999999999999E-4</v>
+      </c>
+      <c r="P37" s="1">
+        <v>1.7899999999999999E-3</v>
+      </c>
+      <c r="Q37" s="1">
+        <v>6.8499999999999996E-6</v>
+      </c>
+      <c r="R37" s="1">
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="S37" s="1">
+        <v>2.5099999999999998E-4</v>
+      </c>
+      <c r="T37" s="1">
+        <v>3.34E-7</v>
+      </c>
+      <c r="U37" s="1">
+        <v>4.8199999999999999E-5</v>
+      </c>
+      <c r="V37" s="1">
+        <v>9.7399999999999996E-5</v>
+      </c>
+      <c r="W37" s="1">
+        <v>7.8100000000000001E-5</v>
+      </c>
+      <c r="X37" s="1">
+        <v>6.9999999999999994E-5</v>
+      </c>
+      <c r="Y37" s="1">
+        <v>6.68E-7</v>
+      </c>
+      <c r="Z37" s="1">
+        <v>4.4400000000000002E-5</v>
+      </c>
+      <c r="AA37" s="1">
+        <v>9.9699999999999997E-10</v>
+      </c>
+      <c r="AB37" s="1">
+        <v>1.04E-8</v>
+      </c>
+      <c r="AC37" s="1">
+        <v>1E-14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>47.5</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <v>5.25</v>
+      </c>
+      <c r="C38">
+        <v>330</v>
+      </c>
+      <c r="D38" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E38" s="1">
+        <v>9.3799999999999994E-3</v>
+      </c>
+      <c r="F38" s="1">
+        <v>3.7199999999999997E-2</v>
+      </c>
+      <c r="G38" s="1">
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="H38" s="1">
+        <v>209000</v>
+      </c>
+      <c r="I38" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="J38" s="1">
+        <v>2.7699999999999999E-5</v>
+      </c>
+      <c r="K38" s="1">
+        <v>6.6600000000000003E-4</v>
+      </c>
+      <c r="L38" s="1">
+        <v>1.3E-11</v>
+      </c>
+      <c r="M38" s="1">
+        <v>7.7000000000000001E-5</v>
+      </c>
+      <c r="N38" s="1">
+        <v>5.7899999999999998E-4</v>
+      </c>
+      <c r="O38" s="1">
+        <v>4.2400000000000001E-4</v>
+      </c>
+      <c r="P38" s="1">
+        <v>1.8E-3</v>
+      </c>
+      <c r="Q38" s="1">
+        <v>7.08E-6</v>
+      </c>
+      <c r="R38" s="1">
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="S38" s="1">
+        <v>1.56E-4</v>
+      </c>
+      <c r="T38" s="1">
+        <v>2.8000000000000002E-7</v>
+      </c>
+      <c r="U38" s="1">
+        <v>1.63E-5</v>
+      </c>
+      <c r="V38" s="1">
+        <v>4.9200000000000003E-5</v>
+      </c>
+      <c r="W38" s="1">
+        <v>7.8100000000000001E-5</v>
+      </c>
+      <c r="X38" s="1">
+        <v>6.7000000000000002E-5</v>
+      </c>
+      <c r="Y38" s="1">
+        <v>5.6000000000000004E-7</v>
+      </c>
+      <c r="Z38" s="1">
+        <v>3.8000000000000002E-5</v>
+      </c>
+      <c r="AA38" s="1">
+        <v>9.3400000000000008E-10</v>
+      </c>
+      <c r="AB38" s="1">
+        <v>6.5700000000000003E-9</v>
+      </c>
+      <c r="AC38" s="1">
+        <v>1E-14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>50</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <v>5.23</v>
+      </c>
+      <c r="C39">
+        <v>330</v>
+      </c>
+      <c r="D39" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="E39" s="2">
+        <v>4.7499999999999999E-3</v>
+      </c>
+      <c r="F39" s="1">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="G39" s="1">
+        <v>0.21</v>
+      </c>
+      <c r="H39" s="1">
+        <v>209000</v>
+      </c>
+      <c r="I39" s="1">
+        <v>1.03E-2</v>
+      </c>
+      <c r="J39" s="1">
+        <v>3.5599999999999998E-5</v>
+      </c>
+      <c r="K39" s="2">
+        <v>4.4299999999999998E-4</v>
+      </c>
+      <c r="L39" s="1">
+        <v>7.1299999999999997E-12</v>
+      </c>
+      <c r="M39" s="2">
+        <v>5.5500000000000001E-5</v>
+      </c>
+      <c r="N39" s="1">
+        <v>6.7500000000000004E-4</v>
+      </c>
+      <c r="O39" s="2">
+        <v>4.2499999999999998E-4</v>
+      </c>
+      <c r="P39" s="2">
+        <v>1.8E-3</v>
+      </c>
+      <c r="Q39" s="2">
+        <v>7.1400000000000002E-6</v>
+      </c>
+      <c r="R39" s="1">
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="S39" s="2">
+        <v>1.0399999999999999E-4</v>
+      </c>
+      <c r="T39" s="2">
+        <v>2.4699999999999998E-7</v>
+      </c>
+      <c r="U39" s="2">
+        <v>5.1000000000000003E-6</v>
+      </c>
+      <c r="V39" s="2">
+        <v>2.5299999999999998E-5</v>
+      </c>
+      <c r="W39" s="1">
+        <v>7.8100000000000001E-5</v>
+      </c>
+      <c r="X39" s="2">
+        <v>6.4300000000000004E-5</v>
+      </c>
+      <c r="Y39" s="2">
+        <v>4.9399999999999995E-7</v>
+      </c>
+      <c r="Z39" s="1">
+        <v>3.4799999999999999E-5</v>
+      </c>
+      <c r="AA39" s="2">
+        <v>8.8299999999999995E-10</v>
+      </c>
+      <c r="AB39" s="1">
+        <v>4.7399999999999998E-9</v>
+      </c>
+      <c r="AC39" s="1">
+        <v>1E-14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>55</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="C40">
+        <v>330</v>
+      </c>
+      <c r="D40" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="E40" s="1">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F40" s="1">
+        <v>6.6400000000000001E-2</v>
+      </c>
+      <c r="G40" s="1">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="H40" s="1">
+        <v>209000</v>
+      </c>
+      <c r="I40" s="1">
+        <v>1.01E-2</v>
+      </c>
+      <c r="J40" s="1">
+        <v>4.5899999999999998E-5</v>
+      </c>
+      <c r="K40" s="1">
+        <v>3.39E-4</v>
+      </c>
+      <c r="L40" s="1">
+        <v>4.7999999999999997E-12</v>
+      </c>
+      <c r="M40" s="1">
+        <v>4.4499999999999997E-5</v>
+      </c>
+      <c r="N40" s="1">
+        <v>9.5299999999999996E-4</v>
+      </c>
+      <c r="O40" s="1">
+        <v>4.2499999999999998E-4</v>
+      </c>
+      <c r="P40" s="1">
+        <v>1.8E-3</v>
+      </c>
+      <c r="Q40" s="1">
+        <v>7.1500000000000002E-6</v>
+      </c>
+      <c r="R40" s="1">
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="S40" s="1">
+        <v>7.6899999999999999E-5</v>
+      </c>
+      <c r="T40" s="1">
+        <v>2.28E-7</v>
+      </c>
+      <c r="U40" s="1">
+        <v>1.9999999999999999E-6</v>
+      </c>
+      <c r="V40" s="1">
+        <v>1.5E-5</v>
+      </c>
+      <c r="W40" s="1">
+        <v>7.8100000000000001E-5</v>
+      </c>
+      <c r="X40" s="1">
+        <v>6.2100000000000005E-5</v>
+      </c>
+      <c r="Y40" s="1">
+        <v>4.5600000000000001E-7</v>
+      </c>
+      <c r="Z40" s="1">
+        <v>3.6199999999999999E-5</v>
+      </c>
+      <c r="AA40" s="1">
+        <v>8.4299999999999998E-10</v>
+      </c>
+      <c r="AB40" s="1">
+        <v>3.7900000000000004E-9</v>
+      </c>
+      <c r="AC40" s="1">
+        <v>1E-14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>60</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <v>4.75</v>
+      </c>
+      <c r="C41">
+        <v>330</v>
+      </c>
+      <c r="D41" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E41" s="1">
+        <v>2.0699999999999998E-3</v>
+      </c>
+      <c r="F41" s="1">
+        <v>0.107</v>
+      </c>
+      <c r="G41" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="H41" s="1">
+        <v>209000</v>
+      </c>
+      <c r="I41" s="1">
+        <v>1.01E-2</v>
+      </c>
+      <c r="J41" s="1">
+        <v>5.1499999999999998E-5</v>
+      </c>
+      <c r="K41" s="1">
+        <v>2.8499999999999999E-4</v>
+      </c>
+      <c r="L41" s="1">
+        <v>3.6600000000000002E-12</v>
+      </c>
+      <c r="M41" s="1">
+        <v>3.8399999999999998E-5</v>
+      </c>
+      <c r="N41" s="1">
+        <v>1.7600000000000001E-3</v>
+      </c>
+      <c r="O41" s="1">
+        <v>4.2499999999999998E-4</v>
+      </c>
+      <c r="P41" s="1">
+        <v>1.8E-3</v>
+      </c>
+      <c r="Q41" s="1">
+        <v>7.1500000000000002E-6</v>
+      </c>
+      <c r="R41" s="1">
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="S41" s="1">
+        <v>6.3E-5</v>
+      </c>
+      <c r="T41" s="1">
+        <v>2.16E-7</v>
+      </c>
+      <c r="U41" s="1">
+        <v>1.0499999999999999E-6</v>
+      </c>
+      <c r="V41" s="1">
+        <v>1.0499999999999999E-5</v>
+      </c>
+      <c r="W41" s="1">
+        <v>7.8100000000000001E-5</v>
+      </c>
+      <c r="X41" s="1">
+        <v>6.02E-5</v>
+      </c>
+      <c r="Y41" s="1">
+        <v>4.32E-7</v>
+      </c>
+      <c r="Z41" s="1">
+        <v>5.2500000000000002E-5</v>
+      </c>
+      <c r="AA41" s="1">
+        <v>8.0999999999999999E-10</v>
+      </c>
+      <c r="AB41" s="1">
+        <v>3.2799999999999998E-9</v>
+      </c>
+      <c r="AC41" s="1">
+        <v>1E-14</v>
+      </c>
+    </row>
+    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>65</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <v>4.2</v>
+      </c>
+      <c r="C42">
+        <v>330</v>
+      </c>
+      <c r="D42" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="E42" s="1">
+        <v>1.5100000000000001E-3</v>
+      </c>
+      <c r="F42" s="1">
+        <v>0.186</v>
+      </c>
+      <c r="G42" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="H42" s="1">
+        <v>209000</v>
+      </c>
+      <c r="I42" s="1">
+        <v>1.03E-2</v>
+      </c>
+      <c r="J42" s="1">
+        <v>5.1100000000000002E-5</v>
+      </c>
+      <c r="K42" s="1">
+        <v>2.5300000000000002E-4</v>
+      </c>
+      <c r="L42" s="1">
+        <v>3.0000000000000001E-12</v>
+      </c>
+      <c r="M42" s="1">
+        <v>3.4900000000000001E-5</v>
+      </c>
+      <c r="N42" s="1">
+        <v>3.7399999999999998E-3</v>
+      </c>
+      <c r="O42" s="1">
+        <v>4.2499999999999998E-4</v>
+      </c>
+      <c r="P42" s="1">
+        <v>1.8E-3</v>
+      </c>
+      <c r="Q42" s="1">
+        <v>7.1500000000000002E-6</v>
+      </c>
+      <c r="R42" s="1">
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="S42" s="1">
+        <v>5.52E-5</v>
+      </c>
+      <c r="T42" s="1">
+        <v>2.0800000000000001E-7</v>
+      </c>
+      <c r="U42" s="1">
+        <v>6.8599999999999998E-7</v>
+      </c>
+      <c r="V42" s="1">
+        <v>8.3399999999999998E-6</v>
+      </c>
+      <c r="W42" s="1">
+        <v>7.8100000000000001E-5</v>
+      </c>
+      <c r="X42" s="1">
+        <v>5.8799999999999999E-5</v>
+      </c>
+      <c r="Y42" s="1">
+        <v>4.1699999999999999E-7</v>
+      </c>
+      <c r="Z42" s="1">
+        <v>1.26E-4</v>
+      </c>
+      <c r="AA42" s="1">
+        <v>7.8299999999999998E-10</v>
+      </c>
+      <c r="AB42" s="1">
+        <v>2.98E-9</v>
+      </c>
+      <c r="AC42" s="1">
+        <v>1E-14</v>
+      </c>
+    </row>
+    <row r="43" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>70</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <v>3.5</v>
+      </c>
+      <c r="C43">
+        <v>330</v>
+      </c>
+      <c r="D43" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="E43" s="1">
+        <v>1.15E-3</v>
+      </c>
+      <c r="F43" s="1">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="G43" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="H43" s="1">
+        <v>209000</v>
+      </c>
+      <c r="I43" s="1">
+        <v>1.15E-2</v>
+      </c>
+      <c r="J43" s="1">
+        <v>4.32E-5</v>
+      </c>
+      <c r="K43" s="1">
+        <v>2.31E-4</v>
+      </c>
+      <c r="L43" s="1">
+        <v>2.5700000000000002E-12</v>
+      </c>
+      <c r="M43" s="1">
+        <v>3.2700000000000002E-5</v>
+      </c>
+      <c r="N43" s="1">
+        <v>7.1900000000000002E-3</v>
+      </c>
+      <c r="O43" s="1">
+        <v>4.2499999999999998E-4</v>
+      </c>
+      <c r="P43" s="1">
+        <v>1.8E-3</v>
+      </c>
+      <c r="Q43" s="1">
+        <v>7.1500000000000002E-6</v>
+      </c>
+      <c r="R43" s="1">
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="S43" s="1">
+        <v>5.0399999999999999E-5</v>
+      </c>
+      <c r="T43" s="1">
+        <v>2.03E-7</v>
+      </c>
+      <c r="U43" s="1">
+        <v>5.1399999999999997E-7</v>
+      </c>
+      <c r="V43" s="1">
+        <v>7.1099999999999997E-6</v>
+      </c>
+      <c r="W43" s="1">
+        <v>7.8100000000000001E-5</v>
+      </c>
+      <c r="X43" s="1">
+        <v>5.7500000000000002E-5</v>
+      </c>
+      <c r="Y43" s="1">
+        <v>4.0499999999999999E-7</v>
+      </c>
+      <c r="Z43" s="1">
+        <v>3.77E-4</v>
+      </c>
+      <c r="AA43" s="1">
+        <v>7.5999999999999996E-10</v>
+      </c>
+      <c r="AB43" s="1">
+        <v>2.7900000000000001E-9</v>
+      </c>
+      <c r="AC43" s="1">
+        <v>1E-14</v>
+      </c>
+    </row>
+    <row r="44" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>75</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <v>2.83</v>
+      </c>
+      <c r="C44">
+        <v>330</v>
+      </c>
+      <c r="D44" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="E44" s="1">
+        <v>8.8900000000000003E-4</v>
+      </c>
+      <c r="F44" s="1">
+        <v>0.63800000000000001</v>
+      </c>
+      <c r="G44" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="H44" s="1">
+        <v>209000</v>
+      </c>
+      <c r="I44" s="1">
+        <v>1.61E-2</v>
+      </c>
+      <c r="J44" s="1">
+        <v>2.83E-5</v>
+      </c>
+      <c r="K44" s="1">
+        <v>2.1499999999999999E-4</v>
+      </c>
+      <c r="L44" s="1">
+        <v>2.2699999999999998E-12</v>
+      </c>
+      <c r="M44" s="1">
+        <v>3.1199999999999999E-5</v>
+      </c>
+      <c r="N44" s="1">
+        <v>1.12E-2</v>
+      </c>
+      <c r="O44" s="1">
+        <v>4.2499999999999998E-4</v>
+      </c>
+      <c r="P44" s="1">
+        <v>1.8E-3</v>
+      </c>
+      <c r="Q44" s="1">
+        <v>7.1500000000000002E-6</v>
+      </c>
+      <c r="R44" s="1">
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="S44" s="1">
+        <v>4.7200000000000002E-5</v>
+      </c>
+      <c r="T44" s="1">
+        <v>1.98E-7</v>
+      </c>
+      <c r="U44" s="1">
+        <v>4.1600000000000002E-7</v>
+      </c>
+      <c r="V44" s="1">
+        <v>6.3300000000000004E-6</v>
+      </c>
+      <c r="W44" s="1">
+        <v>7.8100000000000001E-5</v>
+      </c>
+      <c r="X44" s="1">
+        <v>5.6199999999999997E-5</v>
+      </c>
+      <c r="Y44" s="1">
+        <v>3.96E-7</v>
+      </c>
+      <c r="Z44" s="1">
+        <v>1.1199999999999999E-3</v>
+      </c>
+      <c r="AA44" s="1">
+        <v>7.4000000000000003E-10</v>
+      </c>
+      <c r="AB44" s="1">
+        <v>2.6599999999999999E-9</v>
+      </c>
+      <c r="AC44" s="1">
+        <v>1E-14</v>
+      </c>
+    </row>
+    <row r="45" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>80</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="C45">
+        <v>328</v>
+      </c>
+      <c r="D45" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="E45" s="1">
+        <v>7.0600000000000003E-4</v>
+      </c>
+      <c r="F45" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="G45" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="H45" s="1">
+        <v>209000</v>
+      </c>
+      <c r="I45" s="1">
+        <v>2.6800000000000001E-2</v>
+      </c>
+      <c r="J45" s="1">
+        <v>1.33E-5</v>
+      </c>
+      <c r="K45" s="1">
+        <v>2.02E-4</v>
+      </c>
+      <c r="L45" s="1">
+        <v>2.0400000000000002E-12</v>
+      </c>
+      <c r="M45" s="1">
+        <v>3.01E-5</v>
+      </c>
+      <c r="N45" s="1">
+        <v>1.1299999999999999E-2</v>
+      </c>
+      <c r="O45" s="1">
+        <v>4.2499999999999998E-4</v>
+      </c>
+      <c r="P45" s="1">
+        <v>1.8E-3</v>
+      </c>
+      <c r="Q45" s="1">
+        <v>7.1500000000000002E-6</v>
+      </c>
+      <c r="R45" s="1">
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="S45" s="1">
+        <v>4.49E-5</v>
+      </c>
+      <c r="T45" s="1">
+        <v>1.9500000000000001E-7</v>
+      </c>
+      <c r="U45" s="1">
+        <v>3.53E-7</v>
+      </c>
+      <c r="V45" s="1">
+        <v>5.7799999999999997E-6</v>
+      </c>
+      <c r="W45" s="1">
+        <v>7.8100000000000001E-5</v>
+      </c>
+      <c r="X45" s="1">
+        <v>5.5000000000000002E-5</v>
+      </c>
+      <c r="Y45" s="1">
+        <v>3.89E-7</v>
+      </c>
+      <c r="Z45" s="1">
+        <v>2E-3</v>
+      </c>
+      <c r="AA45" s="1">
+        <v>7.2299999999999998E-10</v>
+      </c>
+      <c r="AB45" s="1">
+        <v>2.5599999999999998E-9</v>
+      </c>
+      <c r="AC45" s="1">
+        <v>1E-14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>85</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <v>1.33</v>
+      </c>
+      <c r="C46">
+        <v>320</v>
+      </c>
+      <c r="D46" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E46" s="1">
+        <v>5.7200000000000003E-4</v>
+      </c>
+      <c r="F46" s="1">
+        <v>3.24</v>
+      </c>
+      <c r="G46" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="H46" s="1">
+        <v>200000</v>
+      </c>
+      <c r="I46" s="1">
+        <v>7.0099999999999996E-2</v>
+      </c>
+      <c r="J46" s="1">
+        <v>5.5600000000000001E-6</v>
+      </c>
+      <c r="K46" s="1">
+        <v>1.92E-4</v>
+      </c>
+      <c r="L46" s="1">
+        <v>1.85E-12</v>
+      </c>
+      <c r="M46" s="1">
+        <v>2.9200000000000002E-5</v>
+      </c>
+      <c r="N46" s="1">
+        <v>6.1000000000000004E-3</v>
+      </c>
+      <c r="O46" s="1">
+        <v>4.2499999999999998E-4</v>
+      </c>
+      <c r="P46" s="1">
+        <v>1.8E-3</v>
+      </c>
+      <c r="Q46" s="1">
+        <v>7.1500000000000002E-6</v>
+      </c>
+      <c r="R46" s="1">
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="S46" s="1">
+        <v>4.3000000000000002E-5</v>
+      </c>
+      <c r="T46" s="1">
+        <v>1.92E-7</v>
+      </c>
+      <c r="U46" s="1">
+        <v>3.0899999999999997E-7</v>
+      </c>
+      <c r="V46" s="1">
+        <v>5.3700000000000003E-6</v>
+      </c>
+      <c r="W46" s="1">
+        <v>7.8100000000000001E-5</v>
+      </c>
+      <c r="X46" s="1">
+        <v>5.3699999999999997E-5</v>
+      </c>
+      <c r="Y46" s="1">
+        <v>3.8299999999999998E-7</v>
+      </c>
+      <c r="Z46" s="1">
+        <v>1.6800000000000001E-3</v>
+      </c>
+      <c r="AA46" s="1">
+        <v>7.0700000000000004E-10</v>
+      </c>
+      <c r="AB46" s="1">
+        <v>2.4899999999999999E-9</v>
+      </c>
+      <c r="AC46" s="1">
+        <v>1E-14</v>
+      </c>
+    </row>
+    <row r="47" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>90</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <v>0.85</v>
+      </c>
+      <c r="C47">
+        <v>310</v>
+      </c>
+      <c r="D47" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="E47" s="1">
+        <v>4.7100000000000001E-4</v>
+      </c>
+      <c r="F47" s="1">
+        <v>5.84</v>
+      </c>
+      <c r="G47" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H47" s="1">
+        <v>190000</v>
+      </c>
+      <c r="I47" s="1">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="J47" s="1">
+        <v>2.2400000000000002E-6</v>
+      </c>
+      <c r="K47" s="1">
+        <v>1.83E-4</v>
+      </c>
+      <c r="L47" s="1">
+        <v>1.71E-12</v>
+      </c>
+      <c r="M47" s="1">
+        <v>2.8399999999999999E-5</v>
+      </c>
+      <c r="N47" s="1">
+        <v>1.5100000000000001E-3</v>
+      </c>
+      <c r="O47" s="1">
+        <v>4.2499999999999998E-4</v>
+      </c>
+      <c r="P47" s="1">
+        <v>1.8E-3</v>
+      </c>
+      <c r="Q47" s="1">
+        <v>7.1500000000000002E-6</v>
+      </c>
+      <c r="R47" s="1">
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="S47" s="1">
+        <v>4.18E-5</v>
+      </c>
+      <c r="T47" s="1">
+        <v>1.8900000000000001E-7</v>
+      </c>
+      <c r="U47" s="1">
+        <v>2.7599999999999998E-7</v>
+      </c>
+      <c r="V47" s="1">
+        <v>5.0499999999999999E-6</v>
+      </c>
+      <c r="W47" s="1">
+        <v>7.7999999999999999E-5</v>
+      </c>
+      <c r="X47" s="1">
+        <v>5.2500000000000002E-5</v>
+      </c>
+      <c r="Y47" s="1">
+        <v>3.7800000000000002E-7</v>
+      </c>
+      <c r="Z47" s="1">
+        <v>4.3100000000000001E-4</v>
+      </c>
+      <c r="AA47" s="1">
+        <v>6.9399999999999998E-10</v>
+      </c>
+      <c r="AB47" s="1">
+        <v>2.4300000000000001E-9</v>
+      </c>
+      <c r="AC47" s="1">
+        <v>1E-14</v>
+      </c>
+    </row>
+    <row r="48" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>95</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <v>0.54</v>
+      </c>
+      <c r="C48">
+        <v>270</v>
+      </c>
+      <c r="D48" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="E48" s="1">
+        <v>3.9300000000000001E-4</v>
+      </c>
+      <c r="F48" s="1">
+        <v>10.1</v>
+      </c>
+      <c r="G48" s="1">
+        <v>0.13</v>
+      </c>
+      <c r="H48" s="1">
+        <v>180000</v>
+      </c>
+      <c r="I48" s="1">
+        <v>0.71199999999999997</v>
+      </c>
+      <c r="J48" s="1">
+        <v>8.9599999999999998E-7</v>
+      </c>
+      <c r="K48" s="1">
+        <v>1.76E-4</v>
+      </c>
+      <c r="L48" s="1">
+        <v>1.5900000000000001E-12</v>
+      </c>
+      <c r="M48" s="1">
+        <v>2.7800000000000001E-5</v>
+      </c>
+      <c r="N48" s="1">
+        <v>2.42E-4</v>
+      </c>
+      <c r="O48" s="1">
+        <v>4.2499999999999998E-4</v>
+      </c>
+      <c r="P48" s="1">
+        <v>1.8E-3</v>
+      </c>
+      <c r="Q48" s="1">
+        <v>7.1500000000000002E-6</v>
+      </c>
+      <c r="R48" s="1">
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="S48" s="1">
+        <v>4.0299999999999997E-5</v>
+      </c>
+      <c r="T48" s="1">
+        <v>1.8699999999999999E-7</v>
+      </c>
+      <c r="U48" s="1">
+        <v>2.4999999999999999E-7</v>
+      </c>
+      <c r="V48" s="1">
+        <v>4.78E-6</v>
+      </c>
+      <c r="W48" s="1">
+        <v>7.7899999999999996E-5</v>
+      </c>
+      <c r="X48" s="1">
+        <v>5.1199999999999998E-5</v>
+      </c>
+      <c r="Y48" s="1">
+        <v>3.7300000000000002E-7</v>
+      </c>
+      <c r="Z48" s="1">
+        <v>4.9799999999999998E-5</v>
+      </c>
+      <c r="AA48" s="1">
+        <v>6.8100000000000003E-10</v>
+      </c>
+      <c r="AB48" s="1">
+        <v>2.3699999999999999E-9</v>
+      </c>
+      <c r="AC48" s="1">
+        <v>1E-14</v>
+      </c>
+    </row>
+    <row r="49" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>100</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B49">
+        <v>0.4</v>
+      </c>
+      <c r="C49">
+        <v>195</v>
+      </c>
+      <c r="D49" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="E49" s="1">
+        <v>3.3199999999999999E-4</v>
+      </c>
+      <c r="F49" s="1">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="G49" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="H49" s="1">
+        <v>160000</v>
+      </c>
+      <c r="I49" s="1">
+        <v>2.08</v>
+      </c>
+      <c r="J49" s="1">
+        <v>3.58E-7</v>
+      </c>
+      <c r="K49" s="1">
+        <v>1.7000000000000001E-4</v>
+      </c>
+      <c r="L49" s="1">
+        <v>1.48E-12</v>
+      </c>
+      <c r="M49" s="1">
+        <v>2.73E-5</v>
+      </c>
+      <c r="N49" s="1">
+        <v>4.4700000000000002E-5</v>
+      </c>
+      <c r="O49" s="1">
+        <v>4.2499999999999998E-4</v>
+      </c>
+      <c r="P49" s="1">
+        <v>1.8E-3</v>
+      </c>
+      <c r="Q49" s="1">
+        <v>7.1500000000000002E-6</v>
+      </c>
+      <c r="R49" s="1">
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="S49" s="1">
+        <v>3.93E-5</v>
+      </c>
+      <c r="T49" s="1">
+        <v>1.85E-7</v>
+      </c>
+      <c r="U49" s="1">
+        <v>2.2999999999999999E-7</v>
+      </c>
+      <c r="V49" s="1">
+        <v>4.5600000000000004E-6</v>
+      </c>
+      <c r="W49" s="1">
+        <v>7.7700000000000005E-5</v>
+      </c>
+      <c r="X49" s="1">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="Y49" s="1">
+        <v>3.6899999999999998E-7</v>
+      </c>
+      <c r="Z49" s="1">
+        <v>6.7599999999999997E-6</v>
+      </c>
+      <c r="AA49" s="1">
+        <v>6.6999999999999996E-10</v>
+      </c>
+      <c r="AB49" s="1">
+        <v>2.33E-9</v>
+      </c>
+      <c r="AC49" s="1">
+        <v>1E-14</v>
+      </c>
+    </row>
+    <row r="50" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>105</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B50">
+        <v>0.34</v>
+      </c>
+      <c r="C50">
+        <v>110</v>
+      </c>
+      <c r="D50" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E50" s="1">
+        <v>2.8400000000000002E-4</v>
+      </c>
+      <c r="F50" s="1">
+        <v>24.7</v>
+      </c>
+      <c r="G50" s="1">
+        <v>0.11</v>
+      </c>
+      <c r="H50" s="1">
+        <v>140000</v>
+      </c>
+      <c r="I50" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="J50" s="1">
+        <v>1.43E-7</v>
+      </c>
+      <c r="K50" s="1">
+        <v>1.64E-4</v>
+      </c>
+      <c r="L50" s="1">
+        <v>1.4000000000000001E-12</v>
+      </c>
+      <c r="M50" s="1">
+        <v>2.6800000000000001E-5</v>
+      </c>
+      <c r="N50" s="1">
+        <v>1.77E-5</v>
+      </c>
+      <c r="O50" s="1">
+        <v>4.2499999999999998E-4</v>
+      </c>
+      <c r="P50" s="1">
+        <v>1.8E-3</v>
+      </c>
+      <c r="Q50" s="1">
+        <v>7.1500000000000002E-6</v>
+      </c>
+      <c r="R50" s="1">
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="S50" s="1">
+        <v>3.8300000000000003E-5</v>
+      </c>
+      <c r="T50" s="1">
+        <v>1.8300000000000001E-7</v>
+      </c>
+      <c r="U50" s="1">
+        <v>2.1299999999999999E-7</v>
+      </c>
+      <c r="V50" s="1">
+        <v>4.3699999999999997E-6</v>
+      </c>
+      <c r="W50" s="1">
+        <v>7.7399999999999998E-5</v>
+      </c>
+      <c r="X50" s="1">
+        <v>4.8699999999999998E-5</v>
+      </c>
+      <c r="Y50" s="1">
+        <v>3.6600000000000002E-7</v>
+      </c>
+      <c r="Z50" s="1">
+        <v>8.3799999999999996E-7</v>
+      </c>
+      <c r="AA50" s="1">
+        <v>6.59E-10</v>
+      </c>
+      <c r="AB50" s="1">
+        <v>2.2900000000000002E-9</v>
+      </c>
+      <c r="AC50" s="1">
+        <v>1E-14</v>
+      </c>
+    </row>
+    <row r="51" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>110</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B51">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="C51">
+        <v>60</v>
+      </c>
+      <c r="D51" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="E51" s="1">
+        <v>2.4399999999999999E-4</v>
+      </c>
+      <c r="F51" s="1">
+        <v>33.6</v>
+      </c>
+      <c r="G51" s="1">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="H51" s="1">
+        <v>120000</v>
+      </c>
+      <c r="I51" s="1">
+        <v>7.98</v>
+      </c>
+      <c r="J51" s="1">
+        <v>5.7299999999999997E-8</v>
+      </c>
+      <c r="K51" s="1">
+        <v>1.5899999999999999E-4</v>
+      </c>
+      <c r="L51" s="1">
+        <v>1.32E-12</v>
+      </c>
+      <c r="M51" s="1">
+        <v>2.8399999999999999E-5</v>
+      </c>
+      <c r="N51" s="1">
+        <v>1.19E-5</v>
+      </c>
+      <c r="O51" s="1">
+        <v>4.2499999999999998E-4</v>
+      </c>
+      <c r="P51" s="1">
+        <v>1.8E-3</v>
+      </c>
+      <c r="Q51" s="1">
+        <v>7.1500000000000002E-6</v>
+      </c>
+      <c r="R51" s="1">
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="S51" s="1">
+        <v>3.7499999999999997E-5</v>
+      </c>
+      <c r="T51" s="1">
+        <v>1.8099999999999999E-7</v>
+      </c>
+      <c r="U51" s="1">
+        <v>1.98E-7</v>
+      </c>
+      <c r="V51" s="1">
+        <v>4.2100000000000003E-6</v>
+      </c>
+      <c r="W51" s="1">
+        <v>7.7000000000000001E-5</v>
+      </c>
+      <c r="X51" s="1">
+        <v>4.7500000000000003E-5</v>
+      </c>
+      <c r="Y51" s="1">
+        <v>3.6199999999999999E-7</v>
+      </c>
+      <c r="Z51" s="1">
+        <v>9.5599999999999996E-8</v>
+      </c>
+      <c r="AA51" s="1">
+        <v>6.4900000000000003E-10</v>
+      </c>
+      <c r="AB51" s="1">
+        <v>2.2499999999999999E-9</v>
+      </c>
+      <c r="AC51" s="1">
+        <v>1E-14</v>
+      </c>
+    </row>
+    <row r="52" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>115</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B52">
+        <v>0.24</v>
+      </c>
+      <c r="C52">
+        <v>40</v>
+      </c>
+      <c r="D52" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E52" s="1">
+        <v>2.12E-4</v>
+      </c>
+      <c r="F52" s="1">
+        <v>41.5</v>
+      </c>
+      <c r="G52" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="H52" s="1">
+        <v>94000</v>
+      </c>
+      <c r="I52" s="1">
+        <v>10</v>
+      </c>
+      <c r="J52" s="1">
+        <v>2.29E-8</v>
+      </c>
+      <c r="K52" s="1">
+        <v>1.55E-4</v>
+      </c>
+      <c r="L52" s="1">
+        <v>1.2499999999999999E-12</v>
+      </c>
+      <c r="M52" s="1">
+        <v>2.5999999999999998E-5</v>
+      </c>
+      <c r="N52" s="1">
+        <v>1.3499999999999999E-5</v>
+      </c>
+      <c r="O52" s="1">
+        <v>4.2499999999999998E-4</v>
+      </c>
+      <c r="P52" s="1">
+        <v>1.8E-3</v>
+      </c>
+      <c r="Q52" s="1">
+        <v>7.1500000000000002E-6</v>
+      </c>
+      <c r="R52" s="1">
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="S52" s="1">
+        <v>3.68E-5</v>
+      </c>
+      <c r="T52" s="1">
+        <v>1.8E-7</v>
+      </c>
+      <c r="U52" s="1">
+        <v>1.86E-7</v>
+      </c>
+      <c r="V52" s="1">
+        <v>4.0600000000000001E-6</v>
+      </c>
+      <c r="W52" s="1">
+        <v>7.6500000000000003E-5</v>
+      </c>
+      <c r="X52" s="1">
+        <v>4.6199999999999998E-5</v>
+      </c>
+      <c r="Y52" s="1">
+        <v>3.5900000000000003E-7</v>
+      </c>
+      <c r="Z52" s="1">
+        <v>1E-8</v>
+      </c>
+      <c r="AA52" s="1">
+        <v>6.3999999999999996E-10</v>
+      </c>
+      <c r="AB52" s="1">
+        <v>2.2200000000000002E-9</v>
+      </c>
+      <c r="AC52" s="1">
+        <v>1E-14</v>
+      </c>
+    </row>
+    <row r="53" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>120</v>
+      </c>
+      <c r="B53">
+        <v>0.2</v>
+      </c>
+      <c r="C53">
+        <v>35</v>
+      </c>
+      <c r="D53" s="1">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="E53" s="1">
+        <v>1.85E-4</v>
+      </c>
+      <c r="F53" s="1">
+        <v>50</v>
+      </c>
+      <c r="G53" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="H53" s="1">
+        <v>72500</v>
+      </c>
+      <c r="I53" s="1">
+        <v>10</v>
+      </c>
+      <c r="J53" s="1">
+        <v>9.1700000000000004E-9</v>
+      </c>
+      <c r="K53" s="1">
+        <v>1.5100000000000001E-4</v>
+      </c>
+      <c r="L53" s="1">
+        <v>1.19E-12</v>
+      </c>
+      <c r="M53" s="1">
+        <v>2.5700000000000001E-5</v>
+      </c>
+      <c r="N53" s="1">
+        <v>2.1999999999999999E-5</v>
+      </c>
+      <c r="O53" s="1">
+        <v>4.2499999999999998E-4</v>
+      </c>
+      <c r="P53" s="1">
+        <v>1.8E-3</v>
+      </c>
+      <c r="Q53" s="1">
+        <v>7.1500000000000002E-6</v>
+      </c>
+      <c r="R53" s="1">
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="S53" s="1">
+        <v>3.6100000000000003E-5</v>
+      </c>
+      <c r="T53" s="1">
+        <v>1.7800000000000001E-7</v>
+      </c>
+      <c r="U53" s="1">
+        <v>1.7499999999999999E-7</v>
+      </c>
+      <c r="V53" s="1">
+        <v>3.9299999999999996E-6</v>
+      </c>
+      <c r="W53" s="1">
+        <v>7.6000000000000004E-5</v>
+      </c>
+      <c r="X53" s="1">
+        <v>4.5000000000000003E-5</v>
+      </c>
+      <c r="Y53" s="1">
+        <v>3.5600000000000001E-7</v>
+      </c>
+      <c r="Z53" s="1">
+        <v>1.0000000000000001E-9</v>
+      </c>
+      <c r="AA53" s="1">
+        <v>6.3199999999999999E-10</v>
+      </c>
+      <c r="AB53" s="1">
+        <v>2.1900000000000001E-9</v>
+      </c>
+      <c r="AC53" s="1">
+        <v>1E-14</v>
       </c>
     </row>
   </sheetData>

--- a/rtmath/profiles.xlsx
+++ b/rtmath/profiles.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="15180" windowHeight="6795" activeTab="7"/>
+    <workbookView xWindow="120" yWindow="60" windowWidth="15180" windowHeight="6795" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="TRP" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="46">
   <si>
     <t>Profile</t>
   </si>
@@ -156,9 +156,6 @@
   </si>
   <si>
     <t>USS</t>
-  </si>
-  <si>
-    <t>2..59e-6</t>
   </si>
   <si>
     <t>TRP+Aux</t>
@@ -9705,8 +9702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC53"/>
   <sheetViews>
-    <sheetView topLeftCell="K17" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:AC53"/>
+    <sheetView tabSelected="1" topLeftCell="K17" workbookViewId="0">
+      <selection activeCell="AA21" sqref="AA21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11397,8 +11394,8 @@
       <c r="Z20" s="1">
         <v>2.9399999999999998E-6</v>
       </c>
-      <c r="AA20" t="s">
-        <v>45</v>
+      <c r="AA20" s="1">
+        <v>2.5900000000000002E-6</v>
       </c>
       <c r="AB20" s="1">
         <v>2.14E-4</v>
@@ -14353,8 +14350,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="AD21" sqref="AD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14364,7 +14361,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
@@ -16219,8 +16216,8 @@
       <c r="AC20" s="1">
         <v>2.9399999999999998E-6</v>
       </c>
-      <c r="AD20" t="s">
-        <v>45</v>
+      <c r="AD20" s="1">
+        <v>2.5900000000000002E-6</v>
       </c>
       <c r="AE20" s="1">
         <v>2.14E-4</v>

--- a/rtmath/profiles.xlsx
+++ b/rtmath/profiles.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="15180" windowHeight="6795" activeTab="6"/>
+    <workbookView xWindow="120" yWindow="60" windowWidth="15180" windowHeight="6795" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="TRP" sheetId="1" r:id="rId1"/>
@@ -15,13 +15,14 @@
     <sheet name="USS" sheetId="6" r:id="rId6"/>
     <sheet name="Auxiliary" sheetId="7" r:id="rId7"/>
     <sheet name="TRP+Aux" sheetId="8" r:id="rId8"/>
+    <sheet name="TRP+H2O" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="47">
   <si>
     <t>Profile</t>
   </si>
@@ -159,6 +160,9 @@
   </si>
   <si>
     <t>TRP+Aux</t>
+  </si>
+  <si>
+    <t>TRP-H2O</t>
   </si>
 </sst>
 </file>
@@ -511,7 +515,7 @@
   <dimension ref="A1:I53"/>
   <sheetViews>
     <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection sqref="A1:I53"/>
+      <selection sqref="A1:E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9702,7 +9706,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K17" workbookViewId="0">
+    <sheetView topLeftCell="K17" workbookViewId="0">
       <selection activeCell="AA21" sqref="AA21"/>
     </sheetView>
   </sheetViews>
@@ -19463,4 +19467,911 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E53"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>1013</v>
+      </c>
+      <c r="C4">
+        <v>299.7</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2.45E+19</v>
+      </c>
+      <c r="E4" s="1">
+        <v>25900</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>904</v>
+      </c>
+      <c r="C5">
+        <v>293.7</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2.231E+19</v>
+      </c>
+      <c r="E5" s="1">
+        <v>19500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>805</v>
+      </c>
+      <c r="C6">
+        <v>287.7</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2.028E+19</v>
+      </c>
+      <c r="E6" s="1">
+        <v>15300</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>715</v>
+      </c>
+      <c r="C7">
+        <v>283.7</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1.827E+19</v>
+      </c>
+      <c r="E7" s="1">
+        <v>8600</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>633</v>
+      </c>
+      <c r="C8">
+        <v>277</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1.656E+19</v>
+      </c>
+      <c r="E8" s="1">
+        <v>4440</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>559</v>
+      </c>
+      <c r="C9">
+        <v>270.3</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1.499E+19</v>
+      </c>
+      <c r="E9" s="1">
+        <v>3350</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <v>492</v>
+      </c>
+      <c r="C10">
+        <v>263.60000000000002</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1.353E+19</v>
+      </c>
+      <c r="E10" s="1">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>432</v>
+      </c>
+      <c r="C11">
+        <v>257</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1.218E+19</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <v>378</v>
+      </c>
+      <c r="C12">
+        <v>250.3</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1.095E+19</v>
+      </c>
+      <c r="E12" s="1">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>9</v>
+      </c>
+      <c r="B13">
+        <v>329</v>
+      </c>
+      <c r="C13">
+        <v>243.6</v>
+      </c>
+      <c r="D13" s="1">
+        <v>9.789E+18</v>
+      </c>
+      <c r="E13" s="1">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>10</v>
+      </c>
+      <c r="B14">
+        <v>286</v>
+      </c>
+      <c r="C14">
+        <v>237</v>
+      </c>
+      <c r="D14" s="1">
+        <v>8.747E+18</v>
+      </c>
+      <c r="E14" s="1">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>11</v>
+      </c>
+      <c r="B15">
+        <v>247</v>
+      </c>
+      <c r="C15">
+        <v>230.1</v>
+      </c>
+      <c r="D15" s="1">
+        <v>7.78E+18</v>
+      </c>
+      <c r="E15" s="1">
+        <v>73.099999999999994</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>12</v>
+      </c>
+      <c r="B16">
+        <v>213</v>
+      </c>
+      <c r="C16">
+        <v>223.6</v>
+      </c>
+      <c r="D16" s="1">
+        <v>6.904E+18</v>
+      </c>
+      <c r="E16" s="1">
+        <v>29.1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>13</v>
+      </c>
+      <c r="B17">
+        <v>182</v>
+      </c>
+      <c r="C17">
+        <v>217</v>
+      </c>
+      <c r="D17" s="1">
+        <v>6.079E+18</v>
+      </c>
+      <c r="E17" s="1">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>14</v>
+      </c>
+      <c r="B18">
+        <v>156</v>
+      </c>
+      <c r="C18">
+        <v>210.3</v>
+      </c>
+      <c r="D18" s="1">
+        <v>5.377E+18</v>
+      </c>
+      <c r="E18" s="1">
+        <v>6.22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>15</v>
+      </c>
+      <c r="B19">
+        <v>132</v>
+      </c>
+      <c r="C19">
+        <v>203.7</v>
+      </c>
+      <c r="D19" s="1">
+        <v>4.697E+18</v>
+      </c>
+      <c r="E19" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>16</v>
+      </c>
+      <c r="B20">
+        <v>111</v>
+      </c>
+      <c r="C20">
+        <v>197</v>
+      </c>
+      <c r="D20" s="1">
+        <v>4.084E+18</v>
+      </c>
+      <c r="E20" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>17</v>
+      </c>
+      <c r="B21">
+        <v>93.7</v>
+      </c>
+      <c r="C21">
+        <v>194.8</v>
+      </c>
+      <c r="D21" s="1">
+        <v>3.486E+18</v>
+      </c>
+      <c r="E21" s="1">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>18</v>
+      </c>
+      <c r="B22">
+        <v>78.900000000000006</v>
+      </c>
+      <c r="C22">
+        <v>198.8</v>
+      </c>
+      <c r="D22" s="1">
+        <v>2.877E+18</v>
+      </c>
+      <c r="E22" s="1">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>19</v>
+      </c>
+      <c r="B23">
+        <v>66.599999999999994</v>
+      </c>
+      <c r="C23">
+        <v>202.7</v>
+      </c>
+      <c r="D23" s="1">
+        <v>2.381E+18</v>
+      </c>
+      <c r="E23" s="1">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>20</v>
+      </c>
+      <c r="B24">
+        <v>56.5</v>
+      </c>
+      <c r="C24">
+        <v>206.7</v>
+      </c>
+      <c r="D24" s="1">
+        <v>1.981E+18</v>
+      </c>
+      <c r="E24" s="1">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>21</v>
+      </c>
+      <c r="B25">
+        <v>48</v>
+      </c>
+      <c r="C25">
+        <v>210.7</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1.651E+18</v>
+      </c>
+      <c r="E25" s="1">
+        <v>2.65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>22</v>
+      </c>
+      <c r="B26">
+        <v>40.9</v>
+      </c>
+      <c r="C26">
+        <v>214.6</v>
+      </c>
+      <c r="D26" s="1">
+        <v>1.381E+18</v>
+      </c>
+      <c r="E26" s="1">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>23</v>
+      </c>
+      <c r="B27">
+        <v>35</v>
+      </c>
+      <c r="C27">
+        <v>217</v>
+      </c>
+      <c r="D27" s="1">
+        <v>1.169E+18</v>
+      </c>
+      <c r="E27" s="1">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>24</v>
+      </c>
+      <c r="B28">
+        <v>30</v>
+      </c>
+      <c r="C28">
+        <v>219.2</v>
+      </c>
+      <c r="D28" s="1">
+        <v>9.92E+17</v>
+      </c>
+      <c r="E28" s="1">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>25</v>
+      </c>
+      <c r="B29">
+        <v>25.7</v>
+      </c>
+      <c r="C29">
+        <v>221.4</v>
+      </c>
+      <c r="D29" s="1">
+        <v>8.413E+17</v>
+      </c>
+      <c r="E29" s="1">
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>27.5</v>
+      </c>
+      <c r="B30">
+        <v>17.63</v>
+      </c>
+      <c r="C30">
+        <v>227</v>
+      </c>
+      <c r="D30" s="1">
+        <v>5.623E+17</v>
+      </c>
+      <c r="E30" s="1">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>12.2</v>
+      </c>
+      <c r="C31">
+        <v>232.3</v>
+      </c>
+      <c r="D31" s="1">
+        <v>3.807E+17</v>
+      </c>
+      <c r="E31" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>32.5</v>
+      </c>
+      <c r="B32">
+        <v>8.52</v>
+      </c>
+      <c r="C32">
+        <v>237.7</v>
+      </c>
+      <c r="D32" s="1">
+        <v>2.598E+17</v>
+      </c>
+      <c r="E32" s="1">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>35</v>
+      </c>
+      <c r="B33">
+        <v>6</v>
+      </c>
+      <c r="C33">
+        <v>243.1</v>
+      </c>
+      <c r="D33" s="1">
+        <v>1.789E+17</v>
+      </c>
+      <c r="E33" s="1">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>37.5</v>
+      </c>
+      <c r="B34">
+        <v>4.26</v>
+      </c>
+      <c r="C34">
+        <v>248.5</v>
+      </c>
+      <c r="D34" s="1">
+        <v>1.243E+17</v>
+      </c>
+      <c r="E34" s="1">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>40</v>
+      </c>
+      <c r="B35">
+        <v>3.05</v>
+      </c>
+      <c r="C35">
+        <v>254</v>
+      </c>
+      <c r="D35" s="1">
+        <v>8.703E+16</v>
+      </c>
+      <c r="E35" s="1">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>42.5</v>
+      </c>
+      <c r="B36">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C36">
+        <v>259.39999999999998</v>
+      </c>
+      <c r="D36" s="1">
+        <v>6.147E+16</v>
+      </c>
+      <c r="E36" s="1">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>45</v>
+      </c>
+      <c r="B37">
+        <v>1.59</v>
+      </c>
+      <c r="C37">
+        <v>264.8</v>
+      </c>
+      <c r="D37" s="1">
+        <v>4.352E+16</v>
+      </c>
+      <c r="E37" s="1">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>47.5</v>
+      </c>
+      <c r="B38">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="C38">
+        <v>269.60000000000002</v>
+      </c>
+      <c r="D38" s="1">
+        <v>3.119E+16</v>
+      </c>
+      <c r="E38" s="1">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>50</v>
+      </c>
+      <c r="B39">
+        <v>0.85399999999999998</v>
+      </c>
+      <c r="C39">
+        <v>270.2</v>
+      </c>
+      <c r="D39" s="1">
+        <v>2.291E+16</v>
+      </c>
+      <c r="E39" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>55</v>
+      </c>
+      <c r="B40">
+        <v>0.45600000000000002</v>
+      </c>
+      <c r="C40">
+        <v>263.39999999999998</v>
+      </c>
+      <c r="D40" s="1">
+        <v>1.255E+16</v>
+      </c>
+      <c r="E40" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>60</v>
+      </c>
+      <c r="B41">
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="C41">
+        <v>253.1</v>
+      </c>
+      <c r="D41" s="1">
+        <v>6844000000000000</v>
+      </c>
+      <c r="E41" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>65</v>
+      </c>
+      <c r="B42">
+        <v>0.121</v>
+      </c>
+      <c r="C42">
+        <v>236</v>
+      </c>
+      <c r="D42" s="1">
+        <v>3716000000000000</v>
+      </c>
+      <c r="E42" s="1">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>70</v>
+      </c>
+      <c r="B43">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="C43">
+        <v>218.9</v>
+      </c>
+      <c r="D43" s="1">
+        <v>1920000000000000</v>
+      </c>
+      <c r="E43" s="1">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>75</v>
+      </c>
+      <c r="B44">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="C44">
+        <v>201.8</v>
+      </c>
+      <c r="D44" s="1">
+        <v>933800000000000</v>
+      </c>
+      <c r="E44" s="1">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>80</v>
+      </c>
+      <c r="B45">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="C45">
+        <v>184.8</v>
+      </c>
+      <c r="D45" s="1">
+        <v>431400000000000</v>
+      </c>
+      <c r="E45" s="1">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>85</v>
+      </c>
+      <c r="B46" s="1">
+        <v>4.4000000000000003E-3</v>
+      </c>
+      <c r="C46">
+        <v>177.1</v>
+      </c>
+      <c r="D46" s="1">
+        <v>180100000000000</v>
+      </c>
+      <c r="E46" s="1">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>90</v>
+      </c>
+      <c r="B47" s="1">
+        <v>1.72E-3</v>
+      </c>
+      <c r="C47">
+        <v>177</v>
+      </c>
+      <c r="D47" s="1">
+        <v>70430000000000</v>
+      </c>
+      <c r="E47" s="1">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>95</v>
+      </c>
+      <c r="B48" s="1">
+        <v>6.8800000000000003E-4</v>
+      </c>
+      <c r="C48">
+        <v>184.3</v>
+      </c>
+      <c r="D48" s="1">
+        <v>27060000000000</v>
+      </c>
+      <c r="E48" s="1">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>100</v>
+      </c>
+      <c r="B49" s="1">
+        <v>2.8899999999999998E-4</v>
+      </c>
+      <c r="C49">
+        <v>190.7</v>
+      </c>
+      <c r="D49" s="1">
+        <v>10980000000000</v>
+      </c>
+      <c r="E49" s="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>105</v>
+      </c>
+      <c r="B50" s="1">
+        <v>1.2999999999999999E-4</v>
+      </c>
+      <c r="C50">
+        <v>212</v>
+      </c>
+      <c r="D50" s="1">
+        <v>4445000000000</v>
+      </c>
+      <c r="E50" s="1">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>110</v>
+      </c>
+      <c r="B51" s="1">
+        <v>6.4700000000000001E-5</v>
+      </c>
+      <c r="C51">
+        <v>241.6</v>
+      </c>
+      <c r="D51" s="1">
+        <v>1941000000000</v>
+      </c>
+      <c r="E51" s="1">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>115</v>
+      </c>
+      <c r="B52" s="1">
+        <v>3.6000000000000001E-5</v>
+      </c>
+      <c r="C52">
+        <v>299.7</v>
+      </c>
+      <c r="D52" s="1">
+        <v>870600000000</v>
+      </c>
+      <c r="E52" s="1">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>120</v>
+      </c>
+      <c r="B53" s="1">
+        <v>2.2500000000000001E-5</v>
+      </c>
+      <c r="C53">
+        <v>380</v>
+      </c>
+      <c r="D53" s="1">
+        <v>422500000000</v>
+      </c>
+      <c r="E53" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>